--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -700,6 +700,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -483,11 +483,21 @@
       <c r="E2" t="n">
         <v>11.5</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -511,9 +521,15 @@
       <c r="G3" t="n">
         <v>16.5</v>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +553,15 @@
       <c r="G4" t="n">
         <v>14</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,14 +588,20 @@
       <c r="H5" t="n">
         <v>7.33</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>10</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
       <c r="C6" t="n">
         <v>7.57</v>
       </c>
@@ -603,7 +631,9 @@
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
       <c r="C7" t="n">
         <v>3.5</v>
       </c>
@@ -633,9 +663,15 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
       <c r="E8" t="n">
         <v>12.67</v>
       </c>
@@ -659,10 +695,18 @@
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
       <c r="F9" t="n">
         <v>9.75</v>
       </c>
@@ -675,16 +719,26 @@
       <c r="I9" t="n">
         <v>10</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
       <c r="F10" t="n">
         <v>17.5</v>
       </c>
@@ -694,7 +748,9 @@
       <c r="H10" t="n">
         <v>3</v>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>10</v>
+      </c>
       <c r="J10" t="n">
         <v>10</v>
       </c>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -510,13 +510,13 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.16</v>
+        <v>10.2</v>
       </c>
       <c r="E3" t="n">
-        <v>10.76</v>
+        <v>10.8</v>
       </c>
       <c r="F3" t="n">
-        <v>12.43</v>
+        <v>12.4</v>
       </c>
       <c r="G3" t="n">
         <v>16.5</v>
@@ -539,7 +539,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>9.84</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
@@ -571,7 +571,7 @@
         <v>8.5</v>
       </c>
       <c r="C5" t="n">
-        <v>9.24</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D5" t="n">
         <v>11</v>
@@ -580,13 +580,13 @@
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>11.43</v>
+        <v>11.4</v>
       </c>
       <c r="G5" t="n">
-        <v>10.44</v>
+        <v>10.4</v>
       </c>
       <c r="H5" t="n">
-        <v>7.33</v>
+        <v>7.3</v>
       </c>
       <c r="I5" t="n">
         <v>10</v>
@@ -603,25 +603,25 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>7.57</v>
+        <v>7.6</v>
       </c>
       <c r="D6" t="n">
         <v>10.4</v>
       </c>
       <c r="E6" t="n">
-        <v>8.57</v>
+        <v>8.6</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>11.88</v>
+        <v>11.9</v>
       </c>
       <c r="H6" t="n">
-        <v>12.86</v>
+        <v>12.9</v>
       </c>
       <c r="I6" t="n">
-        <v>10.25</v>
+        <v>10.2</v>
       </c>
       <c r="J6" t="n">
         <v>2.5</v>
@@ -641,10 +641,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>9.56</v>
+        <v>9.6</v>
       </c>
       <c r="F7" t="n">
-        <v>8.119999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -673,10 +673,10 @@
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>12.67</v>
+        <v>12.7</v>
       </c>
       <c r="F8" t="n">
-        <v>7.14</v>
+        <v>7.1</v>
       </c>
       <c r="G8" t="n">
         <v>12.8</v>
@@ -708,7 +708,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>9.75</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G9" t="n">
         <v>12</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -483,21 +483,11 @@
       <c r="E2" t="n">
         <v>11.5</v>
       </c>
-      <c r="F2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G2" t="n">
-        <v>10</v>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J2" t="n">
-        <v>10</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -521,15 +511,9 @@
       <c r="G3" t="n">
         <v>16.5</v>
       </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -553,15 +537,9 @@
       <c r="G4" t="n">
         <v>14</v>
       </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -588,20 +566,14 @@
       <c r="H5" t="n">
         <v>7.3</v>
       </c>
-      <c r="I5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" t="n">
-        <v>10</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
         <v>7.6</v>
       </c>
@@ -631,9 +603,7 @@
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
         <v>3.5</v>
       </c>
@@ -663,15 +633,9 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="n">
-        <v>10</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
         <v>12.7</v>
       </c>
@@ -695,18 +659,10 @@
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="n">
-        <v>10</v>
-      </c>
-      <c r="D9" t="n">
-        <v>10</v>
-      </c>
-      <c r="E9" t="n">
-        <v>10</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
         <v>9.800000000000001</v>
       </c>
@@ -719,26 +675,16 @@
       <c r="I9" t="n">
         <v>10</v>
       </c>
-      <c r="J9" t="n">
-        <v>10</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="n">
-        <v>10</v>
-      </c>
-      <c r="D10" t="n">
-        <v>10</v>
-      </c>
-      <c r="E10" t="n">
-        <v>10</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
         <v>17.5</v>
       </c>
@@ -748,9 +694,7 @@
       <c r="H10" t="n">
         <v>3</v>
       </c>
-      <c r="I10" t="n">
-        <v>10</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>10</v>
       </c>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -483,21 +483,11 @@
       <c r="E2" t="n">
         <v>11.5</v>
       </c>
-      <c r="F2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G2" t="n">
-        <v>10</v>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J2" t="n">
-        <v>10</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -510,26 +500,20 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.2</v>
+        <v>10.16</v>
       </c>
       <c r="E3" t="n">
-        <v>10.8</v>
+        <v>10.76</v>
       </c>
       <c r="F3" t="n">
-        <v>12.4</v>
+        <v>12.43</v>
       </c>
       <c r="G3" t="n">
         <v>16.5</v>
       </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,7 +523,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.84</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
@@ -553,15 +537,9 @@
       <c r="G4" t="n">
         <v>14</v>
       </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,7 +549,7 @@
         <v>8.5</v>
       </c>
       <c r="C5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.24</v>
       </c>
       <c r="D5" t="n">
         <v>11</v>
@@ -580,48 +558,42 @@
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>11.4</v>
+        <v>11.43</v>
       </c>
       <c r="G5" t="n">
-        <v>10.4</v>
+        <v>10.44</v>
       </c>
       <c r="H5" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" t="n">
-        <v>10</v>
-      </c>
+        <v>7.33</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>7.6</v>
+        <v>7.57</v>
       </c>
       <c r="D6" t="n">
         <v>10.4</v>
       </c>
       <c r="E6" t="n">
-        <v>8.6</v>
+        <v>8.57</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>11.9</v>
+        <v>11.88</v>
       </c>
       <c r="H6" t="n">
-        <v>12.9</v>
+        <v>12.86</v>
       </c>
       <c r="I6" t="n">
-        <v>10.2</v>
+        <v>10.25</v>
       </c>
       <c r="J6" t="n">
         <v>2.5</v>
@@ -631,9 +603,7 @@
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
         <v>3.5</v>
       </c>
@@ -641,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>9.6</v>
+        <v>9.56</v>
       </c>
       <c r="F7" t="n">
-        <v>8.1</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -663,20 +633,14 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="n">
-        <v>10</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>12.7</v>
+        <v>12.67</v>
       </c>
       <c r="F8" t="n">
-        <v>7.1</v>
+        <v>7.14</v>
       </c>
       <c r="G8" t="n">
         <v>12.8</v>
@@ -695,20 +659,12 @@
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="n">
-        <v>10</v>
-      </c>
-      <c r="D9" t="n">
-        <v>10</v>
-      </c>
-      <c r="E9" t="n">
-        <v>10</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.75</v>
       </c>
       <c r="G9" t="n">
         <v>12</v>
@@ -719,26 +675,16 @@
       <c r="I9" t="n">
         <v>10</v>
       </c>
-      <c r="J9" t="n">
-        <v>10</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="n">
-        <v>10</v>
-      </c>
-      <c r="D10" t="n">
-        <v>10</v>
-      </c>
-      <c r="E10" t="n">
-        <v>10</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
         <v>17.5</v>
       </c>
@@ -748,14 +694,12 @@
       <c r="H10" t="n">
         <v>3</v>
       </c>
-      <c r="I10" t="n">
-        <v>10</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.16</v>
+        <v>10.19</v>
       </c>
       <c r="E3" t="n">
         <v>10.76</v>
@@ -539,16 +539,16 @@
         <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>9.84</v>
+        <v>9.81</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="G4" t="n">
         <v>14</v>
@@ -574,25 +574,25 @@
         <v>9.24</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>10.78</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>11.43</v>
+        <v>11.29</v>
       </c>
       <c r="G5" t="n">
         <v>10.44</v>
       </c>
       <c r="H5" t="n">
-        <v>7.33</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
         <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -606,16 +606,16 @@
         <v>7.57</v>
       </c>
       <c r="D6" t="n">
-        <v>10.4</v>
+        <v>9.5</v>
       </c>
       <c r="E6" t="n">
-        <v>8.57</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>11.88</v>
+        <v>11.37</v>
       </c>
       <c r="H6" t="n">
         <v>12.86</v>
@@ -644,7 +644,7 @@
         <v>9.56</v>
       </c>
       <c r="F7" t="n">
-        <v>8.119999999999999</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -653,7 +653,7 @@
         <v>7.2</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
         <v>7.5</v>
@@ -673,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>12.67</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
         <v>7.14</v>
@@ -711,7 +711,7 @@
         <v>9.75</v>
       </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="n">
         <v>13</v>
@@ -737,7 +737,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
         <v>17.5</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -756,6 +756,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,7 +481,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>11.5</v>
+        <v>11.83</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.19</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>10.76</v>
+        <v>10.17</v>
       </c>
       <c r="F3" t="n">
         <v>12.43</v>
@@ -539,16 +539,16 @@
         <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>9.81</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>9.220000000000001</v>
+        <v>9.76</v>
       </c>
       <c r="F4" t="n">
-        <v>10.5</v>
+        <v>10.31</v>
       </c>
       <c r="G4" t="n">
         <v>14</v>
@@ -568,22 +568,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.5</v>
+        <v>8.17</v>
       </c>
       <c r="C5" t="n">
-        <v>9.24</v>
+        <v>9.83</v>
       </c>
       <c r="D5" t="n">
-        <v>10.78</v>
+        <v>10.24</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>11.29</v>
+        <v>11.18</v>
       </c>
       <c r="G5" t="n">
-        <v>10.44</v>
+        <v>10.89</v>
       </c>
       <c r="H5" t="n">
         <v>7</v>
@@ -606,25 +606,25 @@
         <v>7.57</v>
       </c>
       <c r="D6" t="n">
-        <v>9.5</v>
+        <v>9.69</v>
       </c>
       <c r="E6" t="n">
-        <v>8.710000000000001</v>
+        <v>8.82</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>11.37</v>
+        <v>11.21</v>
       </c>
       <c r="H6" t="n">
-        <v>12.86</v>
+        <v>12.75</v>
       </c>
       <c r="I6" t="n">
         <v>10.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="7">
@@ -641,16 +641,16 @@
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>9.56</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>8.630000000000001</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>7.2</v>
+        <v>6.67</v>
       </c>
       <c r="I7" t="n">
         <v>7</v>
@@ -676,10 +676,10 @@
         <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>7.14</v>
+        <v>7.25</v>
       </c>
       <c r="G8" t="n">
-        <v>12.8</v>
+        <v>13.33</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -740,7 +740,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="n">
-        <v>17.5</v>
+        <v>16.67</v>
       </c>
       <c r="G10" t="n">
         <v>12.5</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,26 +478,16 @@
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="E2" t="n">
         <v>11.83</v>
       </c>
-      <c r="F2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G2" t="n">
-        <v>10</v>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J2" t="n">
-        <v>10</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -510,58 +500,46 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>10.17</v>
+        <v>10.04</v>
       </c>
       <c r="F3" t="n">
-        <v>12.43</v>
+        <v>12.75</v>
       </c>
       <c r="G3" t="n">
         <v>16.5</v>
       </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>10.14</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>9.76</v>
+        <v>9.98</v>
       </c>
       <c r="F4" t="n">
-        <v>10.31</v>
+        <v>10.33</v>
       </c>
       <c r="G4" t="n">
         <v>14</v>
       </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,26 +549,24 @@
         <v>8.17</v>
       </c>
       <c r="C5" t="n">
-        <v>9.83</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>10.24</v>
+        <v>10.02</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>11.18</v>
+        <v>11.2</v>
       </c>
       <c r="G5" t="n">
-        <v>10.89</v>
+        <v>10.55</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10</v>
-      </c>
+        <v>6.6</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>5</v>
       </c>
@@ -599,23 +575,21 @@
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>7.57</v>
+        <v>7.25</v>
       </c>
       <c r="D6" t="n">
-        <v>9.69</v>
+        <v>9.67</v>
       </c>
       <c r="E6" t="n">
-        <v>8.82</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>11.21</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
         <v>12.75</v>
@@ -631,9 +605,7 @@
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
         <v>3.5</v>
       </c>
@@ -641,10 +613,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>9.109999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>8.789999999999999</v>
+        <v>9</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -663,17 +635,11 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="n">
-        <v>10</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>13.4</v>
       </c>
       <c r="F8" t="n">
         <v>7.25</v>
@@ -685,7 +651,7 @@
         <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J8" t="n">
         <v>17</v>
@@ -695,18 +661,10 @@
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="n">
-        <v>10</v>
-      </c>
-      <c r="D9" t="n">
-        <v>10</v>
-      </c>
-      <c r="E9" t="n">
-        <v>10</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
         <v>9.75</v>
       </c>
@@ -714,28 +672,22 @@
         <v>13</v>
       </c>
       <c r="H9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="I9" t="n">
         <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="n">
-        <v>10</v>
-      </c>
-      <c r="D10" t="n">
-        <v>10</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
         <v>15</v>
       </c>
@@ -749,7 +701,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
         <v>10</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="E2" t="n">
         <v>11.83</v>
@@ -503,10 +503,10 @@
         <v>9.859999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>10.04</v>
+        <v>10.12</v>
       </c>
       <c r="F3" t="n">
-        <v>12.75</v>
+        <v>11.6</v>
       </c>
       <c r="G3" t="n">
         <v>16.5</v>
@@ -520,7 +520,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="C4" t="n">
         <v>10.14</v>
@@ -529,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>9.98</v>
+        <v>10.11</v>
       </c>
       <c r="F4" t="n">
         <v>10.33</v>
@@ -539,7 +539,9 @@
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -549,19 +551,19 @@
         <v>8.17</v>
       </c>
       <c r="C5" t="n">
-        <v>9.960000000000001</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>10.02</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>11.2</v>
+        <v>10.85</v>
       </c>
       <c r="G5" t="n">
-        <v>10.55</v>
+        <v>10.26</v>
       </c>
       <c r="H5" t="n">
         <v>6.6</v>
@@ -577,22 +579,22 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>7.25</v>
+        <v>8.4</v>
       </c>
       <c r="D6" t="n">
         <v>9.67</v>
       </c>
       <c r="E6" t="n">
-        <v>8.800000000000001</v>
+        <v>9.15</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>10.58</v>
       </c>
       <c r="H6" t="n">
-        <v>12.75</v>
+        <v>12.89</v>
       </c>
       <c r="I6" t="n">
         <v>10.25</v>
@@ -613,19 +615,19 @@
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>9.449999999999999</v>
+        <v>9.74</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>9.42</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="I7" t="n">
         <v>6.67</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7</v>
       </c>
       <c r="J7" t="n">
         <v>7.5</v>
@@ -642,10 +644,10 @@
         <v>13.4</v>
       </c>
       <c r="F8" t="n">
-        <v>7.25</v>
+        <v>7.11</v>
       </c>
       <c r="G8" t="n">
-        <v>13.33</v>
+        <v>13.29</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -669,7 +671,7 @@
         <v>9.75</v>
       </c>
       <c r="G9" t="n">
-        <v>13</v>
+        <v>13.33</v>
       </c>
       <c r="H9" t="n">
         <v>12.5</v>
@@ -687,7 +689,9 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>13</v>
+      </c>
       <c r="E10" t="n">
         <v>15</v>
       </c>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -475,13 +475,13 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="D2" t="n">
         <v>10.5</v>
       </c>
       <c r="E2" t="n">
-        <v>11.83</v>
+        <v>12.43</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -494,16 +494,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>9.859999999999999</v>
+        <v>9.52</v>
       </c>
       <c r="E3" t="n">
-        <v>10.12</v>
+        <v>10.27</v>
       </c>
       <c r="F3" t="n">
         <v>11.6</v>
@@ -523,13 +523,13 @@
         <v>9.5</v>
       </c>
       <c r="C4" t="n">
-        <v>10.14</v>
+        <v>10.48</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.11</v>
+        <v>10.05</v>
       </c>
       <c r="F4" t="n">
         <v>10.33</v>
@@ -548,19 +548,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.17</v>
+        <v>7.57</v>
       </c>
       <c r="C5" t="n">
-        <v>9.880000000000001</v>
+        <v>9.73</v>
       </c>
       <c r="D5" t="n">
-        <v>9.890000000000001</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.85</v>
+        <v>10.69</v>
       </c>
       <c r="G5" t="n">
         <v>10.26</v>
@@ -585,19 +585,19 @@
         <v>9.67</v>
       </c>
       <c r="E6" t="n">
-        <v>9.15</v>
+        <v>9.31</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.58</v>
+        <v>10.06</v>
       </c>
       <c r="H6" t="n">
-        <v>12.89</v>
+        <v>12.8</v>
       </c>
       <c r="I6" t="n">
-        <v>10.25</v>
+        <v>7.83</v>
       </c>
       <c r="J6" t="n">
         <v>3.33</v>
@@ -618,7 +618,7 @@
         <v>9.74</v>
       </c>
       <c r="F7" t="n">
-        <v>9.42</v>
+        <v>9.94</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -644,7 +644,7 @@
         <v>13.4</v>
       </c>
       <c r="F8" t="n">
-        <v>7.11</v>
+        <v>7.2</v>
       </c>
       <c r="G8" t="n">
         <v>13.29</v>
@@ -668,7 +668,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>9.75</v>
+        <v>12.17</v>
       </c>
       <c r="G9" t="n">
         <v>13.33</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -1,37 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7353DD1E-0F6C-406B-90DF-89E7A4E76673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Nine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>SL</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +60,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,294 +384,264 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>SL</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
         <v>12</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>10.5</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>11.83</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>9.86</v>
+      </c>
+      <c r="E3">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="F3">
         <v>11.6</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>16.5</v>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>9.5</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>10.14</v>
       </c>
-      <c r="D4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
         <v>10.11</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>10.33</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>14</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>8.17</v>
       </c>
-      <c r="C5" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="E5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="C5">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="D5">
+        <v>9.89</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
         <v>10.85</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>10.26</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>6.6</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>8.4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>9.67</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>9.15</v>
       </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
         <v>10.58</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>12.89</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>10.25</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>3.33</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>3.5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>9.74</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>9.42</v>
       </c>
-      <c r="G7" t="n">
-        <v>10</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
         <v>6.71</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>6.67</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>7.5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>13.4</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>7.11</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>13.29</v>
       </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
         <v>7.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>17</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>9.75</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>13.33</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>12.5</v>
       </c>
-      <c r="I9" t="n">
-        <v>10</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
         <v>15</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>13</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>15</v>
       </c>
-      <c r="F10" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="F10">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="G10">
         <v>12.5</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>3</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>10</v>
       </c>
     </row>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -1,51 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7353DD1E-0F6C-406B-90DF-89E7A4E76673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Nine" sheetId="1" r:id="rId1"/>
+    <sheet name="Nine" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>SL</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -384,264 +420,294 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>SL</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2">
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D2" t="n">
         <v>10.5</v>
       </c>
-      <c r="E2">
-        <v>11.83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="E2" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.29</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>9.86</v>
-      </c>
-      <c r="E3">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="F3">
-        <v>11.6</v>
-      </c>
-      <c r="G3">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="H9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>13</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15</v>
+      </c>
+      <c r="F10" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="G10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H10" t="n">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>9.5</v>
-      </c>
-      <c r="C4">
-        <v>10.14</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>10.11</v>
-      </c>
-      <c r="F4">
-        <v>10.33</v>
-      </c>
-      <c r="G4">
-        <v>14</v>
-      </c>
-      <c r="J4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>8.17</v>
-      </c>
-      <c r="C5">
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="D5">
-        <v>9.89</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>10.85</v>
-      </c>
-      <c r="G5">
-        <v>10.26</v>
-      </c>
-      <c r="H5">
-        <v>6.6</v>
-      </c>
-      <c r="J5">
+      <c r="I10" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>8.4</v>
-      </c>
-      <c r="D6">
-        <v>9.67</v>
-      </c>
-      <c r="E6">
-        <v>9.15</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>10.58</v>
-      </c>
-      <c r="H6">
-        <v>12.89</v>
-      </c>
-      <c r="I6">
-        <v>10.25</v>
-      </c>
-      <c r="J6">
-        <v>3.33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>3.5</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>9.74</v>
-      </c>
-      <c r="F7">
-        <v>9.42</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>6.71</v>
-      </c>
-      <c r="I7">
-        <v>6.67</v>
-      </c>
-      <c r="J7">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>13.4</v>
-      </c>
-      <c r="F8">
-        <v>7.11</v>
-      </c>
-      <c r="G8">
-        <v>13.29</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8">
-        <v>7.5</v>
-      </c>
-      <c r="J8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>9.75</v>
-      </c>
-      <c r="G9">
-        <v>13.33</v>
-      </c>
-      <c r="H9">
-        <v>12.5</v>
-      </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-      <c r="J9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>15</v>
-      </c>
-      <c r="F10">
-        <v>16.670000000000002</v>
-      </c>
-      <c r="G10">
-        <v>12.5</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>10</v>
       </c>
     </row>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -1,37 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94190ABE-EE30-411F-B2AA-985D92EAB87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nine" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>SL</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +60,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,294 +384,264 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>SL</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
         <v>12.5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>10.5</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>12.43</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>7.5</v>
       </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
         <v>9.52</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>10.27</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>11.6</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>16.5</v>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>9.5</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>10.48</v>
       </c>
-      <c r="D4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="F4">
         <v>10.33</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>14</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>7.57</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>9.73</v>
       </c>
-      <c r="D5" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="E5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="D5">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
         <v>10.69</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>10.26</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>6.6</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>8.4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>9.67</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>9.31</v>
       </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
         <v>10.06</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>12.8</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>7.83</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>3.33</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>3.5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>9.74</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>9.94</v>
       </c>
-      <c r="G7" t="n">
-        <v>10</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
         <v>6.71</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>6.67</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>7.5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>13.4</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>7.2</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>13.29</v>
       </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
         <v>7.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>17</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>12.17</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>13.33</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>12.5</v>
       </c>
-      <c r="I9" t="n">
-        <v>10</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
         <v>15</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>13</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>15</v>
       </c>
-      <c r="F10" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="F10">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="G10">
         <v>12.5</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>3</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>10</v>
       </c>
     </row>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -1,51 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94190ABE-EE30-411F-B2AA-985D92EAB87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Nine" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>SL</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -384,264 +420,306 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>SL</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>12.5</v>
-      </c>
-      <c r="D2">
-        <v>10.5</v>
-      </c>
-      <c r="E2">
-        <v>12.43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>7.5</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>9.52</v>
-      </c>
-      <c r="E3">
-        <v>10.27</v>
-      </c>
-      <c r="F3">
-        <v>11.6</v>
-      </c>
-      <c r="G3">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B3" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="G3" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>9.5</v>
-      </c>
-      <c r="C4">
-        <v>10.48</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="F4">
-        <v>10.33</v>
-      </c>
-      <c r="G4">
-        <v>14</v>
-      </c>
-      <c r="J4">
+      <c r="B4" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>7.57</v>
-      </c>
-      <c r="C5">
-        <v>9.73</v>
-      </c>
-      <c r="D5">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>10.69</v>
-      </c>
-      <c r="G5">
+      <c r="B5" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="D5" t="n">
         <v>10.26</v>
       </c>
-      <c r="H5">
-        <v>6.6</v>
-      </c>
-      <c r="J5">
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="G8" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>13</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>13</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="F10" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="G10" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="H10" t="n">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>8.4</v>
-      </c>
-      <c r="D6">
-        <v>9.67</v>
-      </c>
-      <c r="E6">
-        <v>9.31</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>10.06</v>
-      </c>
-      <c r="H6">
-        <v>12.8</v>
-      </c>
-      <c r="I6">
-        <v>7.83</v>
-      </c>
-      <c r="J6">
-        <v>3.33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>3.5</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>9.74</v>
-      </c>
-      <c r="F7">
-        <v>9.94</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>6.71</v>
-      </c>
-      <c r="I7">
-        <v>6.67</v>
-      </c>
-      <c r="J7">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>13.4</v>
-      </c>
-      <c r="F8">
-        <v>7.2</v>
-      </c>
-      <c r="G8">
-        <v>13.29</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8">
-        <v>7.5</v>
-      </c>
-      <c r="J8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>12.17</v>
-      </c>
-      <c r="G9">
-        <v>13.33</v>
-      </c>
-      <c r="H9">
-        <v>12.5</v>
-      </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-      <c r="J9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>15</v>
-      </c>
-      <c r="F10">
-        <v>16.670000000000002</v>
-      </c>
-      <c r="G10">
-        <v>12.5</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>5</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>10</v>
       </c>
     </row>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -1,37 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35E5AB9-A7F7-4441-8C7C-1A8657B2E052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nine" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Nine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>SL</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +60,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,306 +384,282 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>SL</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
         <v>12.07</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>11.92</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>10.71</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>8</v>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>7.93</v>
       </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
         <v>10.33</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>10.39</v>
       </c>
-      <c r="F3" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="G3">
         <v>12.14</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>14</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>8.08</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>9.67</v>
       </c>
-      <c r="D4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
         <v>9.74</v>
       </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="J4">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="B5">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="C5">
+        <v>9.61</v>
+      </c>
+      <c r="D5">
         <v>10.26</v>
       </c>
-      <c r="E5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="G5">
         <v>9.35</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>7.64</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>7</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>6.33</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>12</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>10.38</v>
       </c>
-      <c r="D6" t="n">
-        <v>10</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="H6">
         <v>12.39</v>
       </c>
-      <c r="I6" t="n">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="I6">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="J6">
         <v>3.75</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>7.86</v>
       </c>
-      <c r="D7" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
         <v>10.65</v>
       </c>
-      <c r="F7" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="G7" t="n">
-        <v>10</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="F7">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
         <v>8.81</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>6.67</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>7.86</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>12.36</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>7.61</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>11.19</v>
       </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
         <v>9</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>15</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>13</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>11.29</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>13.33</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>11</v>
       </c>
-      <c r="I9" t="n">
-        <v>10</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
         <v>15</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>13</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>13.67</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>16.25</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>12.14</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>5</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>10</v>
       </c>
     </row>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -1,51 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berry\GolandProjects\magic-8ball\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35E5AB9-A7F7-4441-8C7C-1A8657B2E052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="18435" yWindow="2025" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Nine" sheetId="1" r:id="rId1"/>
+    <sheet name="Nine" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>SL</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -384,282 +420,306 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>SL</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
         <v>12.07</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
         <v>11.92</v>
       </c>
-      <c r="E2">
-        <v>10.71</v>
-      </c>
-      <c r="F2">
+      <c r="F8" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>7.93</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>10.33</v>
-      </c>
-      <c r="E3">
-        <v>10.39</v>
-      </c>
-      <c r="F3">
-        <v>9.6199999999999992</v>
-      </c>
-      <c r="G3">
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>13</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>13</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="G10" t="n">
         <v>12.14</v>
       </c>
-      <c r="H3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>8.08</v>
-      </c>
-      <c r="C4">
-        <v>9.67</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>9.74</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="C5">
-        <v>9.61</v>
-      </c>
-      <c r="D5">
-        <v>10.26</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="G5">
-        <v>9.35</v>
-      </c>
-      <c r="H5">
-        <v>7.64</v>
-      </c>
-      <c r="I5">
-        <v>7</v>
-      </c>
-      <c r="J5">
-        <v>6.33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="H10" t="n">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>10.38</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>10.130000000000001</v>
-      </c>
-      <c r="H6">
-        <v>12.39</v>
-      </c>
-      <c r="I6">
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="J6">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>7.86</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>10.65</v>
-      </c>
-      <c r="F7">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>8.81</v>
-      </c>
-      <c r="I7">
-        <v>6.67</v>
-      </c>
-      <c r="J7">
-        <v>7.86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>12.36</v>
-      </c>
-      <c r="F8">
-        <v>7.61</v>
-      </c>
-      <c r="G8">
-        <v>11.19</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8">
-        <v>9</v>
-      </c>
-      <c r="J8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>13</v>
-      </c>
-      <c r="F9">
-        <v>11.29</v>
-      </c>
-      <c r="G9">
-        <v>13.33</v>
-      </c>
-      <c r="H9">
-        <v>11</v>
-      </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-      <c r="J9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>13.67</v>
-      </c>
-      <c r="F10">
-        <v>16.25</v>
-      </c>
-      <c r="G10">
-        <v>12.14</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10">
+      <c r="I10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J10" t="n">
         <v>10</v>
       </c>
     </row>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -481,7 +481,7 @@
         <v>11.31</v>
       </c>
       <c r="E2" t="n">
-        <v>10.68</v>
+        <v>10.85</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
@@ -502,13 +502,13 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.24</v>
+        <v>10.14</v>
       </c>
       <c r="E3" t="n">
         <v>10.29</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>10.39</v>
       </c>
       <c r="G3" t="n">
         <v>11.25</v>
@@ -527,16 +527,16 @@
         <v>8.69</v>
       </c>
       <c r="C4" t="n">
-        <v>9.76</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>9.76</v>
+        <v>9.85</v>
       </c>
       <c r="F4" t="n">
-        <v>9.970000000000001</v>
+        <v>9.85</v>
       </c>
       <c r="G4" t="n">
         <v>9.9</v>
@@ -552,28 +552,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.32</v>
+        <v>9.15</v>
       </c>
       <c r="C5" t="n">
         <v>9.710000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>10.24</v>
+        <v>10.15</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.11</v>
+        <v>10.12</v>
       </c>
       <c r="G5" t="n">
         <v>9.449999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>8.08</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>6.33</v>
       </c>
       <c r="J5" t="n">
         <v>6.33</v>
@@ -587,19 +587,19 @@
         <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>10.03</v>
+        <v>10.15</v>
       </c>
       <c r="E6" t="n">
-        <v>9.890000000000001</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.16</v>
+        <v>10.04</v>
       </c>
       <c r="H6" t="n">
         <v>12.05</v>
@@ -626,13 +626,13 @@
         <v>10.55</v>
       </c>
       <c r="F7" t="n">
-        <v>9.84</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.119999999999999</v>
+        <v>9.08</v>
       </c>
       <c r="I7" t="n">
         <v>6.67</v>
@@ -651,13 +651,13 @@
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>11.92</v>
+        <v>11.64</v>
       </c>
       <c r="F8" t="n">
         <v>7.95</v>
       </c>
       <c r="G8" t="n">
-        <v>10.88</v>
+        <v>10.92</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -677,7 +677,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>13</v>
+        <v>13.67</v>
       </c>
       <c r="F9" t="n">
         <v>10.25</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -486,10 +486,18 @@
       <c r="F2" t="n">
         <v>8</v>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -516,8 +524,12 @@
       <c r="H3" t="n">
         <v>14</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -541,8 +553,12 @@
       <c r="G4" t="n">
         <v>9.9</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
       <c r="J4" t="n">
         <v>7</v>
       </c>
@@ -615,7 +631,9 @@
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
       <c r="C7" t="n">
         <v>8.75</v>
       </c>
@@ -645,11 +663,15 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
       <c r="E8" t="n">
         <v>11.64</v>
       </c>
@@ -673,9 +695,15 @@
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
       <c r="E9" t="n">
         <v>13.67</v>
       </c>
@@ -699,8 +727,12 @@
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
       <c r="D10" t="n">
         <v>13</v>
       </c>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.14</v>
+        <v>10.19</v>
       </c>
       <c r="E3" t="n">
-        <v>10.29</v>
+        <v>10.25</v>
       </c>
       <c r="F3" t="n">
         <v>10.39</v>
@@ -539,13 +539,13 @@
         <v>8.69</v>
       </c>
       <c r="C4" t="n">
-        <v>9.859999999999999</v>
+        <v>9.81</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>9.85</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="F4" t="n">
         <v>9.85</v>
@@ -571,22 +571,22 @@
         <v>9.15</v>
       </c>
       <c r="C5" t="n">
-        <v>9.710000000000001</v>
+        <v>9.75</v>
       </c>
       <c r="D5" t="n">
-        <v>10.15</v>
+        <v>10.11</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.12</v>
+        <v>10.1</v>
       </c>
       <c r="G5" t="n">
-        <v>9.449999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="H5" t="n">
-        <v>8.359999999999999</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="I5" t="n">
         <v>6.33</v>
@@ -609,16 +609,16 @@
         <v>10.15</v>
       </c>
       <c r="E6" t="n">
-        <v>9.880000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.04</v>
+        <v>10.15</v>
       </c>
       <c r="H6" t="n">
-        <v>12.05</v>
+        <v>11.91</v>
       </c>
       <c r="I6" t="n">
         <v>9.75</v>
@@ -641,10 +641,10 @@
         <v>10.1</v>
       </c>
       <c r="E7" t="n">
-        <v>10.55</v>
+        <v>10.6</v>
       </c>
       <c r="F7" t="n">
-        <v>9.960000000000001</v>
+        <v>9.85</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>11.64</v>
+        <v>11.87</v>
       </c>
       <c r="F8" t="n">
-        <v>7.95</v>
+        <v>8.09</v>
       </c>
       <c r="G8" t="n">
         <v>10.92</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -513,10 +513,10 @@
         <v>10.19</v>
       </c>
       <c r="E3" t="n">
-        <v>10.25</v>
+        <v>10.35</v>
       </c>
       <c r="F3" t="n">
-        <v>10.39</v>
+        <v>10.11</v>
       </c>
       <c r="G3" t="n">
         <v>11.25</v>
@@ -545,10 +545,10 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>9.890000000000001</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>9.85</v>
+        <v>9.93</v>
       </c>
       <c r="G4" t="n">
         <v>9.9</v>
@@ -571,19 +571,19 @@
         <v>9.15</v>
       </c>
       <c r="C5" t="n">
-        <v>9.75</v>
+        <v>9.65</v>
       </c>
       <c r="D5" t="n">
-        <v>10.11</v>
+        <v>10.04</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.1</v>
+        <v>10.05</v>
       </c>
       <c r="G5" t="n">
-        <v>9.4</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="H5" t="n">
         <v>8.130000000000001</v>
@@ -592,7 +592,7 @@
         <v>6.33</v>
       </c>
       <c r="J5" t="n">
-        <v>6.33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -603,25 +603,25 @@
         <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>9.609999999999999</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>10.15</v>
+        <v>10.07</v>
       </c>
       <c r="E6" t="n">
-        <v>9.9</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.15</v>
+        <v>10.11</v>
       </c>
       <c r="H6" t="n">
         <v>11.91</v>
       </c>
       <c r="I6" t="n">
-        <v>9.75</v>
+        <v>10.11</v>
       </c>
       <c r="J6" t="n">
         <v>4.4</v>
@@ -641,10 +641,10 @@
         <v>10.1</v>
       </c>
       <c r="E7" t="n">
-        <v>10.6</v>
+        <v>10.55</v>
       </c>
       <c r="F7" t="n">
-        <v>9.85</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -708,7 +708,7 @@
         <v>13.67</v>
       </c>
       <c r="F9" t="n">
-        <v>10.25</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="G9" t="n">
         <v>13.33</v>
@@ -737,7 +737,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="n">
-        <v>13.67</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
         <v>15.6</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -478,7 +478,7 @@
         <v>12.07</v>
       </c>
       <c r="D2" t="n">
-        <v>11.31</v>
+        <v>11.64</v>
       </c>
       <c r="E2" t="n">
         <v>10.85</v>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.19</v>
+        <v>10.36</v>
       </c>
       <c r="E3" t="n">
-        <v>10.35</v>
+        <v>10.31</v>
       </c>
       <c r="F3" t="n">
         <v>10.11</v>
@@ -536,16 +536,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.69</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.81</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>9.960000000000001</v>
+        <v>10.01</v>
       </c>
       <c r="F4" t="n">
         <v>9.93</v>
@@ -571,19 +571,19 @@
         <v>9.15</v>
       </c>
       <c r="C5" t="n">
-        <v>9.65</v>
+        <v>9.69</v>
       </c>
       <c r="D5" t="n">
-        <v>10.04</v>
+        <v>9.99</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.05</v>
+        <v>10.06</v>
       </c>
       <c r="G5" t="n">
-        <v>9.449999999999999</v>
+        <v>9.49</v>
       </c>
       <c r="H5" t="n">
         <v>8.130000000000001</v>
@@ -609,7 +609,7 @@
         <v>10.07</v>
       </c>
       <c r="E6" t="n">
-        <v>9.949999999999999</v>
+        <v>9.94</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -621,10 +621,10 @@
         <v>11.91</v>
       </c>
       <c r="I6" t="n">
-        <v>10.11</v>
+        <v>10.7</v>
       </c>
       <c r="J6" t="n">
-        <v>4.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>10.1</v>
       </c>
       <c r="E7" t="n">
-        <v>10.55</v>
+        <v>10.51</v>
       </c>
       <c r="F7" t="n">
         <v>9.890000000000001</v>
@@ -685,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>8.17</v>
       </c>
       <c r="J8" t="n">
         <v>15</v>
@@ -708,13 +708,13 @@
         <v>13.67</v>
       </c>
       <c r="F9" t="n">
-        <v>9.890000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G9" t="n">
         <v>13.33</v>
       </c>
       <c r="H9" t="n">
-        <v>11</v>
+        <v>11.83</v>
       </c>
       <c r="I9" t="n">
         <v>10</v>
@@ -740,7 +740,7 @@
         <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>15.6</v>
+        <v>13.5</v>
       </c>
       <c r="G10" t="n">
         <v>12.14</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -545,16 +545,16 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.01</v>
+        <v>10.04</v>
       </c>
       <c r="F4" t="n">
         <v>9.93</v>
       </c>
       <c r="G4" t="n">
-        <v>9.9</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -574,13 +574,13 @@
         <v>9.69</v>
       </c>
       <c r="D5" t="n">
-        <v>9.99</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.06</v>
+        <v>10.09</v>
       </c>
       <c r="G5" t="n">
         <v>9.49</v>
@@ -609,13 +609,13 @@
         <v>10.07</v>
       </c>
       <c r="E6" t="n">
-        <v>9.94</v>
+        <v>9.91</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.11</v>
+        <v>10.12</v>
       </c>
       <c r="H6" t="n">
         <v>11.91</v>
@@ -638,19 +638,19 @@
         <v>8.75</v>
       </c>
       <c r="D7" t="n">
-        <v>10.1</v>
+        <v>10.36</v>
       </c>
       <c r="E7" t="n">
         <v>10.51</v>
       </c>
       <c r="F7" t="n">
-        <v>9.890000000000001</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.08</v>
+        <v>9.67</v>
       </c>
       <c r="I7" t="n">
         <v>6.67</v>
@@ -670,7 +670,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
         <v>11.87</v>
@@ -679,7 +679,7 @@
         <v>8.09</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92</v>
+        <v>10.33</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>13</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.36</v>
+        <v>10.54</v>
       </c>
       <c r="E3" t="n">
-        <v>10.31</v>
+        <v>10.27</v>
       </c>
       <c r="F3" t="n">
         <v>10.11</v>
@@ -539,13 +539,13 @@
         <v>8.359999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.640000000000001</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.04</v>
+        <v>10.01</v>
       </c>
       <c r="F4" t="n">
         <v>9.93</v>
@@ -571,16 +571,16 @@
         <v>9.15</v>
       </c>
       <c r="C5" t="n">
-        <v>9.69</v>
+        <v>9.73</v>
       </c>
       <c r="D5" t="n">
-        <v>9.960000000000001</v>
+        <v>9.99</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.09</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="G5" t="n">
         <v>9.49</v>
@@ -609,16 +609,16 @@
         <v>10.07</v>
       </c>
       <c r="E6" t="n">
-        <v>9.91</v>
+        <v>10.03</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.12</v>
+        <v>10.09</v>
       </c>
       <c r="H6" t="n">
-        <v>11.91</v>
+        <v>11.77</v>
       </c>
       <c r="I6" t="n">
         <v>10.7</v>
@@ -644,19 +644,19 @@
         <v>10.51</v>
       </c>
       <c r="F7" t="n">
-        <v>9.880000000000001</v>
+        <v>9.91</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.67</v>
+        <v>9.82</v>
       </c>
       <c r="I7" t="n">
         <v>6.67</v>
       </c>
       <c r="J7" t="n">
-        <v>7.86</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="8">
@@ -676,10 +676,10 @@
         <v>11.87</v>
       </c>
       <c r="F8" t="n">
-        <v>8.09</v>
+        <v>8.23</v>
       </c>
       <c r="G8" t="n">
-        <v>10.33</v>
+        <v>10.18</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -743,7 +743,7 @@
         <v>13.5</v>
       </c>
       <c r="G10" t="n">
-        <v>12.14</v>
+        <v>11.5</v>
       </c>
       <c r="H10" t="n">
         <v>5</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -510,13 +510,13 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.54</v>
+        <v>10.65</v>
       </c>
       <c r="E3" t="n">
         <v>10.27</v>
       </c>
       <c r="F3" t="n">
-        <v>10.11</v>
+        <v>10.05</v>
       </c>
       <c r="G3" t="n">
         <v>11.25</v>
@@ -539,16 +539,16 @@
         <v>8.359999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.460000000000001</v>
+        <v>9.35</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.01</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>9.93</v>
+        <v>10.02</v>
       </c>
       <c r="G4" t="n">
         <v>9.640000000000001</v>
@@ -574,16 +574,16 @@
         <v>9.73</v>
       </c>
       <c r="D5" t="n">
-        <v>9.99</v>
+        <v>10.05</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>9.970000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="G5" t="n">
-        <v>9.49</v>
+        <v>9.32</v>
       </c>
       <c r="H5" t="n">
         <v>8.130000000000001</v>
@@ -603,19 +603,19 @@
         <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>9.890000000000001</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>10.07</v>
+        <v>9.98</v>
       </c>
       <c r="E6" t="n">
-        <v>10.03</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.09</v>
+        <v>10.11</v>
       </c>
       <c r="H6" t="n">
         <v>11.77</v>
@@ -624,7 +624,7 @@
         <v>10.7</v>
       </c>
       <c r="J6" t="n">
-        <v>6.5</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="7">
@@ -641,10 +641,10 @@
         <v>10.36</v>
       </c>
       <c r="E7" t="n">
-        <v>10.51</v>
+        <v>10.68</v>
       </c>
       <c r="F7" t="n">
-        <v>9.91</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>15.5</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="10">
@@ -740,7 +740,7 @@
         <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>13.5</v>
+        <v>12.57</v>
       </c>
       <c r="G10" t="n">
         <v>11.5</v>
@@ -749,7 +749,7 @@
         <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>7.33</v>
       </c>
       <c r="J10" t="n">
         <v>10</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -475,7 +475,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>12.07</v>
+        <v>11.33</v>
       </c>
       <c r="D2" t="n">
         <v>11.64</v>
@@ -504,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.93</v>
+        <v>8.67</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
@@ -513,7 +513,7 @@
         <v>10.65</v>
       </c>
       <c r="E3" t="n">
-        <v>10.27</v>
+        <v>10.24</v>
       </c>
       <c r="F3" t="n">
         <v>10.05</v>
@@ -545,7 +545,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>9.949999999999999</v>
+        <v>9.99</v>
       </c>
       <c r="F4" t="n">
         <v>10.02</v>
@@ -571,25 +571,25 @@
         <v>9.15</v>
       </c>
       <c r="C5" t="n">
-        <v>9.73</v>
+        <v>9.76</v>
       </c>
       <c r="D5" t="n">
-        <v>10.05</v>
+        <v>10.01</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.05</v>
+        <v>10.13</v>
       </c>
       <c r="G5" t="n">
-        <v>9.32</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="H5" t="n">
         <v>8.130000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>6.33</v>
+        <v>6.25</v>
       </c>
       <c r="J5" t="n">
         <v>6</v>
@@ -609,22 +609,22 @@
         <v>9.98</v>
       </c>
       <c r="E6" t="n">
-        <v>9.949999999999999</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.11</v>
+        <v>10.08</v>
       </c>
       <c r="H6" t="n">
-        <v>11.77</v>
+        <v>11.85</v>
       </c>
       <c r="I6" t="n">
         <v>10.7</v>
       </c>
       <c r="J6" t="n">
-        <v>7.43</v>
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -641,16 +641,16 @@
         <v>10.36</v>
       </c>
       <c r="E7" t="n">
-        <v>10.68</v>
+        <v>10.64</v>
       </c>
       <c r="F7" t="n">
-        <v>9.890000000000001</v>
+        <v>9.92</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.82</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="I7" t="n">
         <v>6.67</v>
@@ -676,10 +676,10 @@
         <v>11.87</v>
       </c>
       <c r="F8" t="n">
-        <v>8.23</v>
+        <v>8.15</v>
       </c>
       <c r="G8" t="n">
-        <v>10.18</v>
+        <v>10.03</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>13.67</v>
+        <v>13.75</v>
       </c>
       <c r="F9" t="n">
         <v>9.300000000000001</v>
@@ -740,7 +740,7 @@
         <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>12.57</v>
+        <v>11.88</v>
       </c>
       <c r="G10" t="n">
         <v>11.5</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.65</v>
+        <v>10.69</v>
       </c>
       <c r="E3" t="n">
-        <v>10.24</v>
+        <v>10.19</v>
       </c>
       <c r="F3" t="n">
         <v>10.05</v>
@@ -539,16 +539,16 @@
         <v>8.359999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.35</v>
+        <v>9.31</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>9.99</v>
+        <v>9.94</v>
       </c>
       <c r="F4" t="n">
-        <v>10.02</v>
+        <v>10.09</v>
       </c>
       <c r="G4" t="n">
         <v>9.640000000000001</v>
@@ -571,22 +571,22 @@
         <v>9.15</v>
       </c>
       <c r="C5" t="n">
-        <v>9.76</v>
+        <v>9.81</v>
       </c>
       <c r="D5" t="n">
-        <v>10.01</v>
+        <v>10.06</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.13</v>
+        <v>10.22</v>
       </c>
       <c r="G5" t="n">
-        <v>9.359999999999999</v>
+        <v>9.24</v>
       </c>
       <c r="H5" t="n">
-        <v>8.130000000000001</v>
+        <v>7.88</v>
       </c>
       <c r="I5" t="n">
         <v>6.25</v>
@@ -606,19 +606,19 @@
         <v>9.949999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>9.98</v>
+        <v>9.91</v>
       </c>
       <c r="E6" t="n">
-        <v>9.869999999999999</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.08</v>
+        <v>10.15</v>
       </c>
       <c r="H6" t="n">
-        <v>11.85</v>
+        <v>11.96</v>
       </c>
       <c r="I6" t="n">
         <v>10.7</v>
@@ -641,10 +641,10 @@
         <v>10.36</v>
       </c>
       <c r="E7" t="n">
-        <v>10.64</v>
+        <v>10.76</v>
       </c>
       <c r="F7" t="n">
-        <v>9.92</v>
+        <v>9.85</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -673,10 +673,10 @@
         <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>11.87</v>
+        <v>12.12</v>
       </c>
       <c r="F8" t="n">
-        <v>8.15</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="G8" t="n">
         <v>10.03</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.69</v>
+        <v>10.65</v>
       </c>
       <c r="E3" t="n">
         <v>10.19</v>
@@ -539,13 +539,13 @@
         <v>8.359999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.31</v>
+        <v>9.35</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>9.94</v>
+        <v>9.9</v>
       </c>
       <c r="F4" t="n">
         <v>10.09</v>
@@ -574,19 +574,19 @@
         <v>9.81</v>
       </c>
       <c r="D5" t="n">
-        <v>10.06</v>
+        <v>10.1</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.22</v>
+        <v>10.28</v>
       </c>
       <c r="G5" t="n">
-        <v>9.24</v>
+        <v>9.32</v>
       </c>
       <c r="H5" t="n">
-        <v>7.88</v>
+        <v>8.35</v>
       </c>
       <c r="I5" t="n">
         <v>6.25</v>
@@ -609,13 +609,13 @@
         <v>9.91</v>
       </c>
       <c r="E6" t="n">
-        <v>9.779999999999999</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.15</v>
+        <v>10.18</v>
       </c>
       <c r="H6" t="n">
         <v>11.96</v>
@@ -641,10 +641,10 @@
         <v>10.36</v>
       </c>
       <c r="E7" t="n">
-        <v>10.76</v>
+        <v>10.68</v>
       </c>
       <c r="F7" t="n">
-        <v>9.85</v>
+        <v>9.82</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -673,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>12.12</v>
+        <v>11.65</v>
       </c>
       <c r="F8" t="n">
         <v>8.039999999999999</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -478,13 +478,13 @@
         <v>11.33</v>
       </c>
       <c r="D2" t="n">
-        <v>11.64</v>
+        <v>11.93</v>
       </c>
       <c r="E2" t="n">
         <v>10.85</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -513,10 +513,10 @@
         <v>10.65</v>
       </c>
       <c r="E3" t="n">
-        <v>10.19</v>
+        <v>10.16</v>
       </c>
       <c r="F3" t="n">
-        <v>10.05</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="G3" t="n">
         <v>11.25</v>
@@ -536,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.359999999999999</v>
+        <v>8.07</v>
       </c>
       <c r="C4" t="n">
         <v>9.35</v>
@@ -545,7 +545,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>9.9</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="F4" t="n">
         <v>10.09</v>
@@ -571,16 +571,16 @@
         <v>9.15</v>
       </c>
       <c r="C5" t="n">
-        <v>9.81</v>
+        <v>9.84</v>
       </c>
       <c r="D5" t="n">
-        <v>10.1</v>
+        <v>10.05</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.28</v>
+        <v>10.32</v>
       </c>
       <c r="G5" t="n">
         <v>9.32</v>
@@ -600,25 +600,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>9.949999999999999</v>
+        <v>10.05</v>
       </c>
       <c r="D6" t="n">
         <v>9.91</v>
       </c>
       <c r="E6" t="n">
-        <v>9.720000000000001</v>
+        <v>9.68</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.18</v>
+        <v>10.23</v>
       </c>
       <c r="H6" t="n">
-        <v>11.96</v>
+        <v>11.63</v>
       </c>
       <c r="I6" t="n">
         <v>10.7</v>
@@ -644,7 +644,7 @@
         <v>10.68</v>
       </c>
       <c r="F7" t="n">
-        <v>9.82</v>
+        <v>9.77</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -676,7 +676,7 @@
         <v>11.65</v>
       </c>
       <c r="F8" t="n">
-        <v>8.039999999999999</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="G8" t="n">
         <v>10.03</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.65</v>
+        <v>10.73</v>
       </c>
       <c r="E3" t="n">
-        <v>10.16</v>
+        <v>10.22</v>
       </c>
       <c r="F3" t="n">
         <v>9.949999999999999</v>
@@ -539,13 +539,13 @@
         <v>8.07</v>
       </c>
       <c r="C4" t="n">
-        <v>9.35</v>
+        <v>9.27</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>9.949999999999999</v>
+        <v>9.93</v>
       </c>
       <c r="F4" t="n">
         <v>10.09</v>
@@ -571,19 +571,19 @@
         <v>9.15</v>
       </c>
       <c r="C5" t="n">
-        <v>9.84</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>10.05</v>
+        <v>10.07</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.32</v>
+        <v>10.34</v>
       </c>
       <c r="G5" t="n">
-        <v>9.32</v>
+        <v>9.23</v>
       </c>
       <c r="H5" t="n">
         <v>8.35</v>
@@ -609,13 +609,13 @@
         <v>9.91</v>
       </c>
       <c r="E6" t="n">
-        <v>9.68</v>
+        <v>9.66</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.23</v>
+        <v>10.32</v>
       </c>
       <c r="H6" t="n">
         <v>11.63</v>
@@ -641,10 +641,10 @@
         <v>10.36</v>
       </c>
       <c r="E7" t="n">
-        <v>10.68</v>
+        <v>10.77</v>
       </c>
       <c r="F7" t="n">
-        <v>9.77</v>
+        <v>9.68</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.73</v>
+        <v>10.63</v>
       </c>
       <c r="E3" t="n">
-        <v>10.22</v>
+        <v>10.3</v>
       </c>
       <c r="F3" t="n">
         <v>9.949999999999999</v>
@@ -539,7 +539,7 @@
         <v>8.07</v>
       </c>
       <c r="C4" t="n">
-        <v>9.27</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
@@ -548,7 +548,7 @@
         <v>9.93</v>
       </c>
       <c r="F4" t="n">
-        <v>10.09</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
         <v>9.640000000000001</v>
@@ -571,7 +571,7 @@
         <v>9.15</v>
       </c>
       <c r="C5" t="n">
-        <v>9.779999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D5" t="n">
         <v>10.07</v>
@@ -580,13 +580,13 @@
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.34</v>
+        <v>10.28</v>
       </c>
       <c r="G5" t="n">
-        <v>9.23</v>
+        <v>9.27</v>
       </c>
       <c r="H5" t="n">
-        <v>8.35</v>
+        <v>7.94</v>
       </c>
       <c r="I5" t="n">
         <v>6.25</v>
@@ -606,10 +606,10 @@
         <v>10.05</v>
       </c>
       <c r="D6" t="n">
-        <v>9.91</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>9.66</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -641,7 +641,7 @@
         <v>10.36</v>
       </c>
       <c r="E7" t="n">
-        <v>10.77</v>
+        <v>10.73</v>
       </c>
       <c r="F7" t="n">
         <v>9.68</v>
@@ -656,7 +656,7 @@
         <v>6.67</v>
       </c>
       <c r="J7" t="n">
-        <v>8.5</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="8">
@@ -673,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>11.65</v>
+        <v>12.06</v>
       </c>
       <c r="F8" t="n">
         <v>8.369999999999999</v>
@@ -743,7 +743,7 @@
         <v>11.88</v>
       </c>
       <c r="G10" t="n">
-        <v>11.5</v>
+        <v>11.67</v>
       </c>
       <c r="H10" t="n">
         <v>5</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Nine" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nine" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,7 +478,7 @@
         <v>11.33</v>
       </c>
       <c r="D2" t="n">
-        <v>11.93</v>
+        <v>11.38</v>
       </c>
       <c r="E2" t="n">
         <v>10.85</v>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.63</v>
+        <v>10.7</v>
       </c>
       <c r="E3" t="n">
-        <v>10.3</v>
+        <v>10.32</v>
       </c>
       <c r="F3" t="n">
         <v>9.949999999999999</v>
@@ -536,22 +536,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.07</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.369999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>9.93</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>10.08</v>
       </c>
       <c r="G4" t="n">
-        <v>9.640000000000001</v>
+        <v>9.33</v>
       </c>
       <c r="H4" t="n">
         <v>16</v>
@@ -571,19 +571,19 @@
         <v>9.15</v>
       </c>
       <c r="C5" t="n">
-        <v>9.699999999999999</v>
+        <v>9.68</v>
       </c>
       <c r="D5" t="n">
-        <v>10.07</v>
+        <v>10.12</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.28</v>
+        <v>10.32</v>
       </c>
       <c r="G5" t="n">
-        <v>9.27</v>
+        <v>9.23</v>
       </c>
       <c r="H5" t="n">
         <v>7.94</v>
@@ -606,25 +606,25 @@
         <v>10.05</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>9.92</v>
       </c>
       <c r="E6" t="n">
-        <v>9.720000000000001</v>
+        <v>9.68</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.32</v>
+        <v>10.28</v>
       </c>
       <c r="H6" t="n">
-        <v>11.63</v>
+        <v>11.31</v>
       </c>
       <c r="I6" t="n">
         <v>10.7</v>
       </c>
       <c r="J6" t="n">
-        <v>8.119999999999999</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -638,13 +638,13 @@
         <v>8.75</v>
       </c>
       <c r="D7" t="n">
-        <v>10.36</v>
+        <v>10.67</v>
       </c>
       <c r="E7" t="n">
-        <v>10.73</v>
+        <v>10.77</v>
       </c>
       <c r="F7" t="n">
-        <v>9.68</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -676,7 +676,7 @@
         <v>12.06</v>
       </c>
       <c r="F8" t="n">
-        <v>8.369999999999999</v>
+        <v>8.69</v>
       </c>
       <c r="G8" t="n">
         <v>10.03</v>
@@ -740,7 +740,7 @@
         <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>11.88</v>
+        <v>11.89</v>
       </c>
       <c r="G10" t="n">
         <v>11.67</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -481,7 +481,7 @@
         <v>11.38</v>
       </c>
       <c r="E2" t="n">
-        <v>10.85</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
         <v>7</v>
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.7</v>
+        <v>10.71</v>
       </c>
       <c r="E3" t="n">
         <v>10.32</v>
@@ -539,19 +539,19 @@
         <v>8.619999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.300000000000001</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>9.880000000000001</v>
+        <v>9.92</v>
       </c>
       <c r="F4" t="n">
-        <v>10.08</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>9.33</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>16</v>
@@ -568,22 +568,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.15</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
         <v>9.68</v>
       </c>
       <c r="D5" t="n">
-        <v>10.12</v>
+        <v>10.08</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.32</v>
+        <v>10.27</v>
       </c>
       <c r="G5" t="n">
-        <v>9.23</v>
+        <v>9.32</v>
       </c>
       <c r="H5" t="n">
         <v>7.94</v>
@@ -606,10 +606,10 @@
         <v>10.05</v>
       </c>
       <c r="D6" t="n">
-        <v>9.92</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>9.68</v>
+        <v>9.73</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -618,7 +618,7 @@
         <v>10.28</v>
       </c>
       <c r="H6" t="n">
-        <v>11.31</v>
+        <v>11.42</v>
       </c>
       <c r="I6" t="n">
         <v>10.7</v>
@@ -638,10 +638,10 @@
         <v>8.75</v>
       </c>
       <c r="D7" t="n">
-        <v>10.67</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>10.77</v>
+        <v>10.68</v>
       </c>
       <c r="F7" t="n">
         <v>9.720000000000001</v>
@@ -650,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.970000000000001</v>
+        <v>9.83</v>
       </c>
       <c r="I7" t="n">
         <v>6.67</v>
@@ -676,10 +676,10 @@
         <v>12.06</v>
       </c>
       <c r="F8" t="n">
-        <v>8.69</v>
+        <v>8.58</v>
       </c>
       <c r="G8" t="n">
-        <v>10.03</v>
+        <v>10.17</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -510,13 +510,13 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.71</v>
+        <v>10.67</v>
       </c>
       <c r="E3" t="n">
-        <v>10.32</v>
+        <v>10.39</v>
       </c>
       <c r="F3" t="n">
-        <v>9.949999999999999</v>
+        <v>10.17</v>
       </c>
       <c r="G3" t="n">
         <v>11.25</v>
@@ -539,16 +539,16 @@
         <v>8.619999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.289999999999999</v>
+        <v>9.33</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>9.92</v>
+        <v>9.9</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>10.14</v>
       </c>
       <c r="G4" t="n">
         <v>10</v>
@@ -571,19 +571,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>9.68</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>10.08</v>
+        <v>10.1</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.27</v>
+        <v>10.29</v>
       </c>
       <c r="G5" t="n">
-        <v>9.32</v>
+        <v>9.18</v>
       </c>
       <c r="H5" t="n">
         <v>7.94</v>
@@ -603,22 +603,22 @@
         <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>10.05</v>
+        <v>9.83</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>9.73</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.28</v>
+        <v>10.34</v>
       </c>
       <c r="H6" t="n">
-        <v>11.42</v>
+        <v>11.26</v>
       </c>
       <c r="I6" t="n">
         <v>10.7</v>
@@ -641,10 +641,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>10.68</v>
+        <v>10.82</v>
       </c>
       <c r="F7" t="n">
-        <v>9.720000000000001</v>
+        <v>9.66</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -676,7 +676,7 @@
         <v>12.06</v>
       </c>
       <c r="F8" t="n">
-        <v>8.58</v>
+        <v>8.74</v>
       </c>
       <c r="G8" t="n">
         <v>10.17</v>
@@ -688,7 +688,7 @@
         <v>8.17</v>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="9">
@@ -746,7 +746,7 @@
         <v>11.67</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I10" t="n">
         <v>7.33</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -484,7 +484,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.67</v>
+        <v>10.69</v>
       </c>
       <c r="E3" t="n">
         <v>10.39</v>
@@ -539,16 +539,16 @@
         <v>8.619999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.33</v>
+        <v>9.31</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>9.9</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>10.14</v>
+        <v>10.25</v>
       </c>
       <c r="G4" t="n">
         <v>10</v>
@@ -574,16 +574,16 @@
         <v>9.609999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>10.1</v>
+        <v>10.05</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.29</v>
+        <v>10.3</v>
       </c>
       <c r="G5" t="n">
-        <v>9.18</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="H5" t="n">
         <v>7.94</v>
@@ -600,16 +600,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="C6" t="n">
         <v>9.83</v>
       </c>
       <c r="D6" t="n">
-        <v>9.859999999999999</v>
+        <v>9.75</v>
       </c>
       <c r="E6" t="n">
-        <v>9.710000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -624,7 +624,7 @@
         <v>10.7</v>
       </c>
       <c r="J6" t="n">
-        <v>8.109999999999999</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>10.82</v>
+        <v>10.86</v>
       </c>
       <c r="F7" t="n">
         <v>9.66</v>
@@ -650,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.83</v>
+        <v>9.77</v>
       </c>
       <c r="I7" t="n">
         <v>6.67</v>
@@ -679,7 +679,7 @@
         <v>8.74</v>
       </c>
       <c r="G8" t="n">
-        <v>10.17</v>
+        <v>10.23</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -740,7 +740,7 @@
         <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>11.89</v>
+        <v>11.4</v>
       </c>
       <c r="G10" t="n">
         <v>11.67</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -481,7 +481,7 @@
         <v>11.38</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>11.14</v>
       </c>
       <c r="F2" t="n">
         <v>8.25</v>
@@ -513,7 +513,7 @@
         <v>10.69</v>
       </c>
       <c r="E3" t="n">
-        <v>10.39</v>
+        <v>10.42</v>
       </c>
       <c r="F3" t="n">
         <v>10.17</v>
@@ -545,10 +545,10 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>9.949999999999999</v>
+        <v>10.02</v>
       </c>
       <c r="F4" t="n">
-        <v>10.25</v>
+        <v>10.31</v>
       </c>
       <c r="G4" t="n">
         <v>10</v>
@@ -568,25 +568,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>9.609999999999999</v>
+        <v>9.58</v>
       </c>
       <c r="D5" t="n">
-        <v>10.05</v>
+        <v>9.98</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.3</v>
+        <v>10.27</v>
       </c>
       <c r="G5" t="n">
-        <v>9.140000000000001</v>
+        <v>9.23</v>
       </c>
       <c r="H5" t="n">
-        <v>7.94</v>
+        <v>7.74</v>
       </c>
       <c r="I5" t="n">
         <v>6.25</v>
@@ -606,25 +606,25 @@
         <v>9.83</v>
       </c>
       <c r="D6" t="n">
-        <v>9.75</v>
+        <v>9.69</v>
       </c>
       <c r="E6" t="n">
-        <v>9.699999999999999</v>
+        <v>9.73</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.34</v>
+        <v>10.39</v>
       </c>
       <c r="H6" t="n">
-        <v>11.26</v>
+        <v>11.37</v>
       </c>
       <c r="I6" t="n">
         <v>10.7</v>
       </c>
       <c r="J6" t="n">
-        <v>8.6</v>
+        <v>8.18</v>
       </c>
     </row>
     <row r="7">
@@ -641,10 +641,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>10.86</v>
+        <v>10.77</v>
       </c>
       <c r="F7" t="n">
-        <v>9.66</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -673,10 +673,10 @@
         <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>12.06</v>
+        <v>12.26</v>
       </c>
       <c r="F8" t="n">
-        <v>8.74</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="G8" t="n">
         <v>10.23</v>
@@ -685,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>8.17</v>
+        <v>7.57</v>
       </c>
       <c r="J8" t="n">
         <v>14.75</v>
@@ -714,7 +714,7 @@
         <v>13.33</v>
       </c>
       <c r="H9" t="n">
-        <v>11.83</v>
+        <v>12.43</v>
       </c>
       <c r="I9" t="n">
         <v>10</v>
@@ -740,7 +740,7 @@
         <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>11.4</v>
+        <v>11.82</v>
       </c>
       <c r="G10" t="n">
         <v>11.67</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -513,7 +513,7 @@
         <v>10.69</v>
       </c>
       <c r="E3" t="n">
-        <v>10.42</v>
+        <v>10.33</v>
       </c>
       <c r="F3" t="n">
         <v>10.17</v>
@@ -545,13 +545,13 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.02</v>
+        <v>10.03</v>
       </c>
       <c r="F4" t="n">
-        <v>10.31</v>
+        <v>9.98</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>10.29</v>
       </c>
       <c r="H4" t="n">
         <v>16</v>
@@ -571,19 +571,19 @@
         <v>8.859999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>9.58</v>
+        <v>9.67</v>
       </c>
       <c r="D5" t="n">
-        <v>9.98</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.27</v>
+        <v>10.26</v>
       </c>
       <c r="G5" t="n">
-        <v>9.23</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="H5" t="n">
         <v>7.74</v>
@@ -592,7 +592,7 @@
         <v>6.25</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="6">
@@ -606,22 +606,22 @@
         <v>9.83</v>
       </c>
       <c r="D6" t="n">
-        <v>9.69</v>
+        <v>10.02</v>
       </c>
       <c r="E6" t="n">
-        <v>9.73</v>
+        <v>9.74</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.39</v>
+        <v>10.44</v>
       </c>
       <c r="H6" t="n">
         <v>11.37</v>
       </c>
       <c r="I6" t="n">
-        <v>10.7</v>
+        <v>10.18</v>
       </c>
       <c r="J6" t="n">
         <v>8.18</v>
@@ -638,13 +638,13 @@
         <v>8.75</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>10.77</v>
+        <v>10.87</v>
       </c>
       <c r="F7" t="n">
-        <v>9.609999999999999</v>
+        <v>9.56</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -688,7 +688,7 @@
         <v>7.57</v>
       </c>
       <c r="J8" t="n">
-        <v>14.75</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="9">
@@ -708,7 +708,7 @@
         <v>13.75</v>
       </c>
       <c r="F9" t="n">
-        <v>9.300000000000001</v>
+        <v>9.82</v>
       </c>
       <c r="G9" t="n">
         <v>13.33</v>
@@ -737,7 +737,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="F10" t="n">
         <v>11.82</v>
@@ -746,7 +746,7 @@
         <v>11.67</v>
       </c>
       <c r="H10" t="n">
-        <v>5.25</v>
+        <v>7.6</v>
       </c>
       <c r="I10" t="n">
         <v>7.33</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.69</v>
+        <v>10.73</v>
       </c>
       <c r="E3" t="n">
         <v>10.33</v>
@@ -539,13 +539,13 @@
         <v>8.619999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.31</v>
+        <v>9.27</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.03</v>
+        <v>10.06</v>
       </c>
       <c r="F4" t="n">
         <v>9.98</v>
@@ -574,13 +574,13 @@
         <v>9.67</v>
       </c>
       <c r="D5" t="n">
-        <v>9.970000000000001</v>
+        <v>9.94</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.26</v>
+        <v>10.25</v>
       </c>
       <c r="G5" t="n">
         <v>9.130000000000001</v>
@@ -609,19 +609,19 @@
         <v>10.02</v>
       </c>
       <c r="E6" t="n">
-        <v>9.74</v>
+        <v>9.75</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.44</v>
+        <v>10.49</v>
       </c>
       <c r="H6" t="n">
         <v>11.37</v>
       </c>
       <c r="I6" t="n">
-        <v>10.18</v>
+        <v>9.58</v>
       </c>
       <c r="J6" t="n">
         <v>8.18</v>
@@ -644,19 +644,19 @@
         <v>10.87</v>
       </c>
       <c r="F7" t="n">
-        <v>9.56</v>
+        <v>9.51</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.77</v>
+        <v>9.94</v>
       </c>
       <c r="I7" t="n">
         <v>6.67</v>
       </c>
       <c r="J7" t="n">
-        <v>8.33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -679,7 +679,7 @@
         <v>8.630000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>10.23</v>
+        <v>10.06</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -708,7 +708,7 @@
         <v>13.75</v>
       </c>
       <c r="F9" t="n">
-        <v>9.82</v>
+        <v>10.42</v>
       </c>
       <c r="G9" t="n">
         <v>13.33</v>
@@ -743,7 +743,7 @@
         <v>11.82</v>
       </c>
       <c r="G10" t="n">
-        <v>11.67</v>
+        <v>11</v>
       </c>
       <c r="H10" t="n">
         <v>7.6</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.73</v>
+        <v>10.69</v>
       </c>
       <c r="E3" t="n">
         <v>10.33</v>
@@ -519,7 +519,7 @@
         <v>10.17</v>
       </c>
       <c r="G3" t="n">
-        <v>11.25</v>
+        <v>11.56</v>
       </c>
       <c r="H3" t="n">
         <v>14</v>
@@ -539,16 +539,16 @@
         <v>8.619999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.27</v>
+        <v>9.31</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.06</v>
+        <v>10.01</v>
       </c>
       <c r="F4" t="n">
-        <v>9.98</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="G4" t="n">
         <v>10.29</v>
@@ -574,19 +574,19 @@
         <v>9.67</v>
       </c>
       <c r="D5" t="n">
-        <v>9.94</v>
+        <v>9.99</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.25</v>
+        <v>10.28</v>
       </c>
       <c r="G5" t="n">
         <v>9.130000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>7.74</v>
+        <v>8.1</v>
       </c>
       <c r="I5" t="n">
         <v>6.25</v>
@@ -606,16 +606,16 @@
         <v>9.83</v>
       </c>
       <c r="D6" t="n">
-        <v>10.02</v>
+        <v>10.05</v>
       </c>
       <c r="E6" t="n">
-        <v>9.75</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.49</v>
+        <v>10.43</v>
       </c>
       <c r="H6" t="n">
         <v>11.37</v>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>8.75</v>
+        <v>8.44</v>
       </c>
       <c r="D7" t="n">
         <v>9.710000000000001</v>
@@ -644,7 +644,7 @@
         <v>10.87</v>
       </c>
       <c r="F7" t="n">
-        <v>9.51</v>
+        <v>9.57</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -673,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>12.26</v>
+        <v>11.9</v>
       </c>
       <c r="F8" t="n">
         <v>8.630000000000001</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.69</v>
+        <v>10.54</v>
       </c>
       <c r="E3" t="n">
-        <v>10.33</v>
+        <v>10.29</v>
       </c>
       <c r="F3" t="n">
         <v>10.17</v>
@@ -539,16 +539,16 @@
         <v>8.619999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.31</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.01</v>
+        <v>10.08</v>
       </c>
       <c r="F4" t="n">
-        <v>9.949999999999999</v>
+        <v>10.06</v>
       </c>
       <c r="G4" t="n">
         <v>10.29</v>
@@ -571,19 +571,19 @@
         <v>8.859999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>9.67</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>9.99</v>
+        <v>9.92</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.28</v>
+        <v>10.3</v>
       </c>
       <c r="G5" t="n">
-        <v>9.130000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="H5" t="n">
         <v>8.1</v>
@@ -592,7 +592,7 @@
         <v>6.25</v>
       </c>
       <c r="J5" t="n">
-        <v>6.4</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="6">
@@ -606,16 +606,16 @@
         <v>9.83</v>
       </c>
       <c r="D6" t="n">
-        <v>10.05</v>
+        <v>9.94</v>
       </c>
       <c r="E6" t="n">
-        <v>9.720000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.43</v>
+        <v>10.42</v>
       </c>
       <c r="H6" t="n">
         <v>11.37</v>
@@ -641,16 +641,16 @@
         <v>9.710000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>10.87</v>
+        <v>10.83</v>
       </c>
       <c r="F7" t="n">
-        <v>9.57</v>
+        <v>9.58</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.94</v>
+        <v>9.74</v>
       </c>
       <c r="I7" t="n">
         <v>6.67</v>
@@ -679,7 +679,7 @@
         <v>8.630000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>10.06</v>
+        <v>10.26</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -737,7 +737,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="n">
-        <v>13.6</v>
+        <v>13.83</v>
       </c>
       <c r="F10" t="n">
         <v>11.82</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -510,16 +510,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.54</v>
+        <v>10.58</v>
       </c>
       <c r="E3" t="n">
-        <v>10.29</v>
+        <v>10.38</v>
       </c>
       <c r="F3" t="n">
-        <v>10.17</v>
+        <v>9.75</v>
       </c>
       <c r="G3" t="n">
-        <v>11.56</v>
+        <v>11.9</v>
       </c>
       <c r="H3" t="n">
         <v>14</v>
@@ -539,16 +539,16 @@
         <v>8.619999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.460000000000001</v>
+        <v>9.42</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.08</v>
+        <v>10.17</v>
       </c>
       <c r="F4" t="n">
-        <v>10.06</v>
+        <v>10.16</v>
       </c>
       <c r="G4" t="n">
         <v>10.29</v>
@@ -571,22 +571,22 @@
         <v>8.859999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>9.710000000000001</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>9.92</v>
+        <v>9.83</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.3</v>
+        <v>10.31</v>
       </c>
       <c r="G5" t="n">
-        <v>9.17</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>8.1</v>
+        <v>8.43</v>
       </c>
       <c r="I5" t="n">
         <v>6.25</v>
@@ -603,28 +603,28 @@
         <v>11.75</v>
       </c>
       <c r="C6" t="n">
-        <v>9.83</v>
+        <v>10.25</v>
       </c>
       <c r="D6" t="n">
-        <v>9.94</v>
+        <v>9.84</v>
       </c>
       <c r="E6" t="n">
-        <v>9.699999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.42</v>
+        <v>10.35</v>
       </c>
       <c r="H6" t="n">
-        <v>11.37</v>
+        <v>11.39</v>
       </c>
       <c r="I6" t="n">
         <v>9.58</v>
       </c>
       <c r="J6" t="n">
-        <v>8.18</v>
+        <v>8.08</v>
       </c>
     </row>
     <row r="7">
@@ -635,16 +635,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>8.44</v>
+        <v>8.1</v>
       </c>
       <c r="D7" t="n">
         <v>9.710000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>10.83</v>
+        <v>10.79</v>
       </c>
       <c r="F7" t="n">
-        <v>9.58</v>
+        <v>9.65</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -673,10 +673,10 @@
         <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>11.9</v>
+        <v>11.57</v>
       </c>
       <c r="F8" t="n">
-        <v>8.630000000000001</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="G8" t="n">
         <v>10.26</v>
@@ -740,7 +740,7 @@
         <v>13.83</v>
       </c>
       <c r="F10" t="n">
-        <v>11.82</v>
+        <v>11.92</v>
       </c>
       <c r="G10" t="n">
         <v>11</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -481,7 +481,7 @@
         <v>11.38</v>
       </c>
       <c r="E2" t="n">
-        <v>11.14</v>
+        <v>10.91</v>
       </c>
       <c r="F2" t="n">
         <v>8.25</v>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.58</v>
+        <v>10.6</v>
       </c>
       <c r="E3" t="n">
-        <v>10.38</v>
+        <v>10.36</v>
       </c>
       <c r="F3" t="n">
         <v>9.75</v>
@@ -539,19 +539,19 @@
         <v>8.619999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.42</v>
+        <v>9.4</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.17</v>
+        <v>10.25</v>
       </c>
       <c r="F4" t="n">
         <v>10.16</v>
       </c>
       <c r="G4" t="n">
-        <v>10.29</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="H4" t="n">
         <v>16</v>
@@ -568,19 +568,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.859999999999999</v>
+        <v>9.09</v>
       </c>
       <c r="C5" t="n">
-        <v>9.619999999999999</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>9.83</v>
+        <v>9.75</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.31</v>
+        <v>10.26</v>
       </c>
       <c r="G5" t="n">
         <v>9.210000000000001</v>
@@ -609,22 +609,22 @@
         <v>9.84</v>
       </c>
       <c r="E6" t="n">
-        <v>9.69</v>
+        <v>9.74</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.35</v>
+        <v>10.38</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39</v>
+        <v>11.11</v>
       </c>
       <c r="I6" t="n">
         <v>9.58</v>
       </c>
       <c r="J6" t="n">
-        <v>8.08</v>
+        <v>7.85</v>
       </c>
     </row>
     <row r="7">
@@ -638,13 +638,13 @@
         <v>8.1</v>
       </c>
       <c r="D7" t="n">
-        <v>9.710000000000001</v>
+        <v>10.13</v>
       </c>
       <c r="E7" t="n">
         <v>10.79</v>
       </c>
       <c r="F7" t="n">
-        <v>9.65</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -653,7 +653,7 @@
         <v>9.74</v>
       </c>
       <c r="I7" t="n">
-        <v>6.67</v>
+        <v>5.75</v>
       </c>
       <c r="J7" t="n">
         <v>9</v>
@@ -676,7 +676,7 @@
         <v>11.57</v>
       </c>
       <c r="F8" t="n">
-        <v>8.609999999999999</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="G8" t="n">
         <v>10.26</v>
@@ -711,7 +711,7 @@
         <v>10.42</v>
       </c>
       <c r="G9" t="n">
-        <v>13.33</v>
+        <v>14.25</v>
       </c>
       <c r="H9" t="n">
         <v>12.43</v>
@@ -740,7 +740,7 @@
         <v>13.83</v>
       </c>
       <c r="F10" t="n">
-        <v>11.92</v>
+        <v>12.15</v>
       </c>
       <c r="G10" t="n">
         <v>11</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -484,10 +484,10 @@
         <v>10.91</v>
       </c>
       <c r="F2" t="n">
-        <v>8.25</v>
+        <v>10.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.6</v>
+        <v>10.61</v>
       </c>
       <c r="E3" t="n">
         <v>10.36</v>
@@ -539,16 +539,16 @@
         <v>8.619999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.4</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="F4" t="n">
         <v>10.25</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10.16</v>
       </c>
       <c r="G4" t="n">
         <v>9.869999999999999</v>
@@ -574,7 +574,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>9.75</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -583,7 +583,7 @@
         <v>10.26</v>
       </c>
       <c r="G5" t="n">
-        <v>9.210000000000001</v>
+        <v>9.24</v>
       </c>
       <c r="H5" t="n">
         <v>8.43</v>
@@ -600,13 +600,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.75</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C6" t="n">
         <v>10.25</v>
       </c>
       <c r="D6" t="n">
-        <v>9.84</v>
+        <v>9.75</v>
       </c>
       <c r="E6" t="n">
         <v>9.74</v>
@@ -618,10 +618,10 @@
         <v>10.38</v>
       </c>
       <c r="H6" t="n">
-        <v>11.11</v>
+        <v>11.24</v>
       </c>
       <c r="I6" t="n">
-        <v>9.58</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
         <v>7.85</v>
@@ -632,7 +632,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>8.1</v>
@@ -641,7 +641,7 @@
         <v>10.13</v>
       </c>
       <c r="E7" t="n">
-        <v>10.79</v>
+        <v>10.76</v>
       </c>
       <c r="F7" t="n">
         <v>9.619999999999999</v>
@@ -650,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.74</v>
+        <v>9.6</v>
       </c>
       <c r="I7" t="n">
         <v>5.75</v>
@@ -676,10 +676,10 @@
         <v>11.57</v>
       </c>
       <c r="F8" t="n">
-        <v>8.890000000000001</v>
+        <v>8.76</v>
       </c>
       <c r="G8" t="n">
-        <v>10.26</v>
+        <v>10.4</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -708,7 +708,7 @@
         <v>13.75</v>
       </c>
       <c r="F9" t="n">
-        <v>10.42</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
         <v>14.25</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -475,7 +475,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>11.33</v>
+        <v>11.38</v>
       </c>
       <c r="D2" t="n">
         <v>11.38</v>
@@ -504,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.67</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
@@ -545,7 +545,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.21</v>
+        <v>10.17</v>
       </c>
       <c r="F4" t="n">
         <v>10.25</v>
@@ -574,16 +574,16 @@
         <v>9.640000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>9.789999999999999</v>
+        <v>9.83</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.26</v>
+        <v>10.23</v>
       </c>
       <c r="G5" t="n">
-        <v>9.24</v>
+        <v>9.4</v>
       </c>
       <c r="H5" t="n">
         <v>8.43</v>
@@ -609,7 +609,7 @@
         <v>9.75</v>
       </c>
       <c r="E6" t="n">
-        <v>9.74</v>
+        <v>9.77</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -621,7 +621,7 @@
         <v>11.24</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>9.43</v>
       </c>
       <c r="J6" t="n">
         <v>7.85</v>
@@ -641,7 +641,7 @@
         <v>10.13</v>
       </c>
       <c r="E7" t="n">
-        <v>10.76</v>
+        <v>10.6</v>
       </c>
       <c r="F7" t="n">
         <v>9.619999999999999</v>
@@ -708,7 +708,7 @@
         <v>13.75</v>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>10.57</v>
       </c>
       <c r="G9" t="n">
         <v>14.25</v>
@@ -720,7 +720,7 @@
         <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>12.67</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="10">
@@ -749,7 +749,7 @@
         <v>7.6</v>
       </c>
       <c r="I10" t="n">
-        <v>7.33</v>
+        <v>6.25</v>
       </c>
       <c r="J10" t="n">
         <v>10</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -510,19 +510,19 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.61</v>
+        <v>10.53</v>
       </c>
       <c r="E3" t="n">
         <v>10.36</v>
       </c>
       <c r="F3" t="n">
-        <v>9.75</v>
+        <v>9.56</v>
       </c>
       <c r="G3" t="n">
         <v>11.9</v>
       </c>
       <c r="H3" t="n">
-        <v>14</v>
+        <v>12.8</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>8.619999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.390000000000001</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.17</v>
+        <v>10.24</v>
       </c>
       <c r="F4" t="n">
-        <v>10.25</v>
+        <v>10.34</v>
       </c>
       <c r="G4" t="n">
-        <v>9.869999999999999</v>
+        <v>10.38</v>
       </c>
       <c r="H4" t="n">
         <v>16</v>
@@ -574,16 +574,16 @@
         <v>9.640000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>9.83</v>
+        <v>9.76</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.23</v>
+        <v>10.21</v>
       </c>
       <c r="G5" t="n">
-        <v>9.4</v>
+        <v>9.27</v>
       </c>
       <c r="H5" t="n">
         <v>8.43</v>
@@ -603,13 +603,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>10.25</v>
+        <v>10.44</v>
       </c>
       <c r="D6" t="n">
-        <v>9.75</v>
+        <v>9.66</v>
       </c>
       <c r="E6" t="n">
-        <v>9.77</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -638,10 +638,10 @@
         <v>8.1</v>
       </c>
       <c r="D7" t="n">
-        <v>10.13</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>10.6</v>
+        <v>10.73</v>
       </c>
       <c r="F7" t="n">
         <v>9.619999999999999</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="D8" t="n">
         <v>4</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -478,7 +478,7 @@
         <v>11.38</v>
       </c>
       <c r="D2" t="n">
-        <v>11.38</v>
+        <v>11.18</v>
       </c>
       <c r="E2" t="n">
         <v>10.91</v>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.53</v>
+        <v>10.41</v>
       </c>
       <c r="E3" t="n">
-        <v>10.36</v>
+        <v>10.51</v>
       </c>
       <c r="F3" t="n">
         <v>9.56</v>
@@ -522,10 +522,10 @@
         <v>11.9</v>
       </c>
       <c r="H3" t="n">
-        <v>12.8</v>
+        <v>12.67</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
         <v>16</v>
@@ -536,19 +536,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.619999999999999</v>
+        <v>8.82</v>
       </c>
       <c r="C4" t="n">
-        <v>9.470000000000001</v>
+        <v>9.59</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="F4" t="n">
         <v>10.24</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10.34</v>
       </c>
       <c r="G4" t="n">
         <v>10.38</v>
@@ -571,16 +571,16 @@
         <v>9.09</v>
       </c>
       <c r="C5" t="n">
-        <v>9.640000000000001</v>
+        <v>9.49</v>
       </c>
       <c r="D5" t="n">
-        <v>9.76</v>
+        <v>9.52</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.21</v>
+        <v>10.26</v>
       </c>
       <c r="G5" t="n">
         <v>9.27</v>
@@ -592,7 +592,7 @@
         <v>6.25</v>
       </c>
       <c r="J5" t="n">
-        <v>6.17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -606,16 +606,16 @@
         <v>10.44</v>
       </c>
       <c r="D6" t="n">
-        <v>9.66</v>
+        <v>9.76</v>
       </c>
       <c r="E6" t="n">
-        <v>9.789999999999999</v>
+        <v>9.74</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.38</v>
+        <v>10.41</v>
       </c>
       <c r="H6" t="n">
         <v>11.24</v>
@@ -644,16 +644,16 @@
         <v>10.73</v>
       </c>
       <c r="F7" t="n">
-        <v>9.619999999999999</v>
+        <v>9.59</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.6</v>
+        <v>9.56</v>
       </c>
       <c r="I7" t="n">
-        <v>5.75</v>
+        <v>7.4</v>
       </c>
       <c r="J7" t="n">
         <v>9</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>7.2</v>
+        <v>7.33</v>
       </c>
       <c r="D8" t="n">
         <v>4</v>
@@ -679,7 +679,7 @@
         <v>8.76</v>
       </c>
       <c r="G8" t="n">
-        <v>10.4</v>
+        <v>10.44</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>10.57</v>
       </c>
       <c r="G9" t="n">
-        <v>14.25</v>
+        <v>12.6</v>
       </c>
       <c r="H9" t="n">
         <v>12.43</v>
@@ -737,7 +737,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="n">
-        <v>13.83</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
         <v>12.15</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -475,13 +475,13 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>11.38</v>
+        <v>11.22</v>
       </c>
       <c r="D2" t="n">
         <v>11.18</v>
       </c>
       <c r="E2" t="n">
-        <v>10.91</v>
+        <v>11.12</v>
       </c>
       <c r="F2" t="n">
         <v>10.2</v>
@@ -504,19 +504,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.619999999999999</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.41</v>
+        <v>10.42</v>
       </c>
       <c r="E3" t="n">
-        <v>10.51</v>
+        <v>10.55</v>
       </c>
       <c r="F3" t="n">
-        <v>9.56</v>
+        <v>9.31</v>
       </c>
       <c r="G3" t="n">
         <v>11.9</v>
@@ -539,16 +539,16 @@
         <v>8.82</v>
       </c>
       <c r="C4" t="n">
-        <v>9.59</v>
+        <v>9.58</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.48</v>
+        <v>10.46</v>
       </c>
       <c r="F4" t="n">
-        <v>10.24</v>
+        <v>10.21</v>
       </c>
       <c r="G4" t="n">
         <v>10.38</v>
@@ -568,25 +568,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.09</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>9.49</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>9.52</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.26</v>
+        <v>10.29</v>
       </c>
       <c r="G5" t="n">
-        <v>9.27</v>
+        <v>9.34</v>
       </c>
       <c r="H5" t="n">
-        <v>8.43</v>
+        <v>8.27</v>
       </c>
       <c r="I5" t="n">
         <v>6.25</v>
@@ -603,22 +603,22 @@
         <v>9.800000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>10.44</v>
+        <v>10.69</v>
       </c>
       <c r="D6" t="n">
-        <v>9.76</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>9.74</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.41</v>
+        <v>10.42</v>
       </c>
       <c r="H6" t="n">
-        <v>11.24</v>
+        <v>10.9</v>
       </c>
       <c r="I6" t="n">
         <v>9.43</v>
@@ -641,10 +641,10 @@
         <v>9.619999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>10.73</v>
+        <v>10.66</v>
       </c>
       <c r="F7" t="n">
-        <v>9.59</v>
+        <v>9.58</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -673,10 +673,10 @@
         <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>11.57</v>
+        <v>11.73</v>
       </c>
       <c r="F8" t="n">
-        <v>8.76</v>
+        <v>9.1</v>
       </c>
       <c r="G8" t="n">
         <v>10.44</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -481,7 +481,7 @@
         <v>11.18</v>
       </c>
       <c r="E2" t="n">
-        <v>11.12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
         <v>10.2</v>
@@ -510,13 +510,13 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.42</v>
+        <v>10.35</v>
       </c>
       <c r="E3" t="n">
-        <v>10.55</v>
+        <v>10.49</v>
       </c>
       <c r="F3" t="n">
-        <v>9.31</v>
+        <v>9.57</v>
       </c>
       <c r="G3" t="n">
         <v>11.9</v>
@@ -539,16 +539,16 @@
         <v>8.82</v>
       </c>
       <c r="C4" t="n">
-        <v>9.58</v>
+        <v>9.65</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.46</v>
+        <v>10.57</v>
       </c>
       <c r="F4" t="n">
-        <v>10.21</v>
+        <v>10.3</v>
       </c>
       <c r="G4" t="n">
         <v>10.38</v>
@@ -568,28 +568,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.880000000000001</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>9.449999999999999</v>
+        <v>9.51</v>
       </c>
       <c r="D5" t="n">
-        <v>9.539999999999999</v>
+        <v>9.43</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.29</v>
+        <v>10.38</v>
       </c>
       <c r="G5" t="n">
         <v>9.34</v>
       </c>
       <c r="H5" t="n">
-        <v>8.27</v>
+        <v>8.52</v>
       </c>
       <c r="I5" t="n">
-        <v>6.25</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
         <v>7</v>
@@ -603,13 +603,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>10.69</v>
+        <v>10.43</v>
       </c>
       <c r="D6" t="n">
-        <v>9.789999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>9.710000000000001</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -618,7 +618,7 @@
         <v>10.42</v>
       </c>
       <c r="H6" t="n">
-        <v>10.9</v>
+        <v>10.69</v>
       </c>
       <c r="I6" t="n">
         <v>9.43</v>
@@ -650,13 +650,13 @@
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.56</v>
+        <v>9.73</v>
       </c>
       <c r="I7" t="n">
         <v>7.4</v>
       </c>
       <c r="J7" t="n">
-        <v>9</v>
+        <v>9.359999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -673,13 +673,13 @@
         <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>11.73</v>
+        <v>11.48</v>
       </c>
       <c r="F8" t="n">
-        <v>9.1</v>
+        <v>9.31</v>
       </c>
       <c r="G8" t="n">
-        <v>10.44</v>
+        <v>10.27</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>13.75</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
         <v>10.57</v>
@@ -743,7 +743,7 @@
         <v>12.15</v>
       </c>
       <c r="G10" t="n">
-        <v>11</v>
+        <v>10.64</v>
       </c>
       <c r="H10" t="n">
         <v>7.6</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.35</v>
+        <v>10.32</v>
       </c>
       <c r="E3" t="n">
-        <v>10.49</v>
+        <v>10.52</v>
       </c>
       <c r="F3" t="n">
         <v>9.57</v>
@@ -522,7 +522,7 @@
         <v>11.9</v>
       </c>
       <c r="H3" t="n">
-        <v>12.67</v>
+        <v>11.43</v>
       </c>
       <c r="I3" t="n">
         <v>14</v>
@@ -539,7 +539,7 @@
         <v>8.82</v>
       </c>
       <c r="C4" t="n">
-        <v>9.65</v>
+        <v>9.68</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
@@ -548,7 +548,7 @@
         <v>10.57</v>
       </c>
       <c r="F4" t="n">
-        <v>10.3</v>
+        <v>10.08</v>
       </c>
       <c r="G4" t="n">
         <v>10.38</v>
@@ -571,7 +571,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>9.51</v>
+        <v>9.48</v>
       </c>
       <c r="D5" t="n">
         <v>9.43</v>
@@ -580,13 +580,13 @@
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.38</v>
+        <v>10.39</v>
       </c>
       <c r="G5" t="n">
-        <v>9.34</v>
+        <v>9.42</v>
       </c>
       <c r="H5" t="n">
-        <v>8.52</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="I5" t="n">
         <v>8</v>
@@ -606,10 +606,10 @@
         <v>10.43</v>
       </c>
       <c r="D6" t="n">
-        <v>9.699999999999999</v>
+        <v>9.92</v>
       </c>
       <c r="E6" t="n">
-        <v>9.619999999999999</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -641,7 +641,7 @@
         <v>9.619999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>10.66</v>
+        <v>10.58</v>
       </c>
       <c r="F7" t="n">
         <v>9.58</v>
@@ -650,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.73</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="I7" t="n">
         <v>7.4</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>7.33</v>
+        <v>8.57</v>
       </c>
       <c r="D8" t="n">
         <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>11.48</v>
+        <v>11.29</v>
       </c>
       <c r="F8" t="n">
         <v>9.31</v>
       </c>
       <c r="G8" t="n">
-        <v>10.27</v>
+        <v>10.38</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -490,7 +490,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -510,16 +510,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.32</v>
+        <v>10.26</v>
       </c>
       <c r="E3" t="n">
-        <v>10.52</v>
+        <v>10.49</v>
       </c>
       <c r="F3" t="n">
         <v>9.57</v>
       </c>
       <c r="G3" t="n">
-        <v>11.9</v>
+        <v>11.25</v>
       </c>
       <c r="H3" t="n">
         <v>11.43</v>
@@ -539,16 +539,16 @@
         <v>8.82</v>
       </c>
       <c r="C4" t="n">
-        <v>9.68</v>
+        <v>9.74</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.57</v>
+        <v>10.54</v>
       </c>
       <c r="F4" t="n">
-        <v>10.08</v>
+        <v>10.01</v>
       </c>
       <c r="G4" t="n">
         <v>10.38</v>
@@ -571,19 +571,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>9.48</v>
+        <v>9.51</v>
       </c>
       <c r="D5" t="n">
-        <v>9.43</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.39</v>
+        <v>10.36</v>
       </c>
       <c r="G5" t="n">
-        <v>9.42</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="H5" t="n">
         <v>8.710000000000001</v>
@@ -606,19 +606,19 @@
         <v>10.43</v>
       </c>
       <c r="D6" t="n">
-        <v>9.92</v>
+        <v>9.99</v>
       </c>
       <c r="E6" t="n">
-        <v>9.609999999999999</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.42</v>
+        <v>10.39</v>
       </c>
       <c r="H6" t="n">
-        <v>10.69</v>
+        <v>10.84</v>
       </c>
       <c r="I6" t="n">
         <v>9.43</v>
@@ -635,22 +635,22 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>8.1</v>
+        <v>8.75</v>
       </c>
       <c r="D7" t="n">
         <v>9.619999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>10.58</v>
+        <v>10.53</v>
       </c>
       <c r="F7" t="n">
-        <v>9.58</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.619999999999999</v>
+        <v>9.68</v>
       </c>
       <c r="I7" t="n">
         <v>7.4</v>
@@ -664,7 +664,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
         <v>8.57</v>
@@ -676,10 +676,10 @@
         <v>11.29</v>
       </c>
       <c r="F8" t="n">
-        <v>9.31</v>
+        <v>9.16</v>
       </c>
       <c r="G8" t="n">
-        <v>10.38</v>
+        <v>10.32</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -478,7 +478,7 @@
         <v>11.22</v>
       </c>
       <c r="D2" t="n">
-        <v>11.18</v>
+        <v>11.28</v>
       </c>
       <c r="E2" t="n">
         <v>11</v>
@@ -510,13 +510,13 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.26</v>
+        <v>10.25</v>
       </c>
       <c r="E3" t="n">
-        <v>10.49</v>
+        <v>10.63</v>
       </c>
       <c r="F3" t="n">
-        <v>9.57</v>
+        <v>10.07</v>
       </c>
       <c r="G3" t="n">
         <v>11.25</v>
@@ -536,25 +536,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.82</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>9.74</v>
+        <v>9.75</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.54</v>
+        <v>10.58</v>
       </c>
       <c r="F4" t="n">
-        <v>10.01</v>
+        <v>10.13</v>
       </c>
       <c r="G4" t="n">
         <v>10.38</v>
       </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -571,19 +571,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>9.51</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>9.460000000000001</v>
+        <v>9.42</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.36</v>
+        <v>10.3</v>
       </c>
       <c r="G5" t="n">
-        <v>9.470000000000001</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="H5" t="n">
         <v>8.710000000000001</v>
@@ -603,28 +603,28 @@
         <v>9.800000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>10.43</v>
+        <v>9.93</v>
       </c>
       <c r="D6" t="n">
-        <v>9.99</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>9.640000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.39</v>
+        <v>10.37</v>
       </c>
       <c r="H6" t="n">
         <v>10.84</v>
       </c>
       <c r="I6" t="n">
-        <v>9.43</v>
+        <v>8.94</v>
       </c>
       <c r="J6" t="n">
-        <v>7.85</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="7">
@@ -641,19 +641,19 @@
         <v>9.619999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>10.53</v>
+        <v>10.39</v>
       </c>
       <c r="F7" t="n">
-        <v>9.609999999999999</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.68</v>
+        <v>9.56</v>
       </c>
       <c r="I7" t="n">
-        <v>7.4</v>
+        <v>7.17</v>
       </c>
       <c r="J7" t="n">
         <v>9.359999999999999</v>
@@ -670,7 +670,7 @@
         <v>8.57</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="E8" t="n">
         <v>11.29</v>
@@ -679,7 +679,7 @@
         <v>9.16</v>
       </c>
       <c r="G8" t="n">
-        <v>10.32</v>
+        <v>10.44</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -708,10 +708,10 @@
         <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>10.57</v>
+        <v>11.06</v>
       </c>
       <c r="G9" t="n">
-        <v>12.6</v>
+        <v>12.83</v>
       </c>
       <c r="H9" t="n">
         <v>12.43</v>
@@ -740,7 +740,7 @@
         <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>12.15</v>
+        <v>12.29</v>
       </c>
       <c r="G10" t="n">
         <v>10.64</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -487,7 +487,7 @@
         <v>10.2</v>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="H2" t="n">
         <v>8</v>
@@ -510,16 +510,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.25</v>
+        <v>10.33</v>
       </c>
       <c r="E3" t="n">
         <v>10.63</v>
       </c>
       <c r="F3" t="n">
-        <v>10.07</v>
+        <v>10.26</v>
       </c>
       <c r="G3" t="n">
-        <v>11.25</v>
+        <v>11.54</v>
       </c>
       <c r="H3" t="n">
         <v>11.43</v>
@@ -539,7 +539,7 @@
         <v>8.720000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>9.75</v>
+        <v>9.67</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
@@ -548,7 +548,7 @@
         <v>10.58</v>
       </c>
       <c r="F4" t="n">
-        <v>10.13</v>
+        <v>10.17</v>
       </c>
       <c r="G4" t="n">
         <v>10.38</v>
@@ -603,10 +603,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>9.93</v>
+        <v>9.74</v>
       </c>
       <c r="D6" t="n">
-        <v>9.869999999999999</v>
+        <v>9.83</v>
       </c>
       <c r="E6" t="n">
         <v>9.699999999999999</v>
@@ -615,7 +615,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.37</v>
+        <v>10.33</v>
       </c>
       <c r="H6" t="n">
         <v>10.84</v>
@@ -632,10 +632,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C7" t="n">
-        <v>8.75</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="D7" t="n">
         <v>9.619999999999999</v>
@@ -644,7 +644,7 @@
         <v>10.39</v>
       </c>
       <c r="F7" t="n">
-        <v>9.630000000000001</v>
+        <v>9.67</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -685,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>7.57</v>
+        <v>7.62</v>
       </c>
       <c r="J8" t="n">
         <v>12.4</v>
@@ -714,7 +714,7 @@
         <v>12.83</v>
       </c>
       <c r="H9" t="n">
-        <v>12.43</v>
+        <v>12.38</v>
       </c>
       <c r="I9" t="n">
         <v>10</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -475,10 +475,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>11.22</v>
+        <v>11.32</v>
       </c>
       <c r="D2" t="n">
-        <v>11.28</v>
+        <v>11.42</v>
       </c>
       <c r="E2" t="n">
         <v>11</v>
@@ -504,16 +504,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.779999999999999</v>
+        <v>8.68</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.33</v>
+        <v>10.37</v>
       </c>
       <c r="E3" t="n">
-        <v>10.63</v>
+        <v>10.82</v>
       </c>
       <c r="F3" t="n">
         <v>10.26</v>
@@ -536,19 +536,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.720000000000001</v>
+        <v>8.58</v>
       </c>
       <c r="C4" t="n">
-        <v>9.67</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.58</v>
+        <v>10.6</v>
       </c>
       <c r="F4" t="n">
-        <v>10.17</v>
+        <v>10.1</v>
       </c>
       <c r="G4" t="n">
         <v>10.38</v>
@@ -571,16 +571,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>9.369999999999999</v>
+        <v>9.18</v>
       </c>
       <c r="D5" t="n">
-        <v>9.42</v>
+        <v>9.4</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.3</v>
+        <v>10.31</v>
       </c>
       <c r="G5" t="n">
         <v>9.609999999999999</v>
@@ -606,22 +606,22 @@
         <v>9.74</v>
       </c>
       <c r="D6" t="n">
-        <v>9.83</v>
+        <v>9.9</v>
       </c>
       <c r="E6" t="n">
-        <v>9.699999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.33</v>
+        <v>10.4</v>
       </c>
       <c r="H6" t="n">
-        <v>10.84</v>
+        <v>10.89</v>
       </c>
       <c r="I6" t="n">
-        <v>8.94</v>
+        <v>8.76</v>
       </c>
       <c r="J6" t="n">
         <v>7.71</v>
@@ -644,19 +644,19 @@
         <v>10.39</v>
       </c>
       <c r="F7" t="n">
-        <v>9.67</v>
+        <v>9.6</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.56</v>
+        <v>9.52</v>
       </c>
       <c r="I7" t="n">
         <v>7.17</v>
       </c>
       <c r="J7" t="n">
-        <v>9.359999999999999</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="8">
@@ -676,10 +676,10 @@
         <v>11.29</v>
       </c>
       <c r="F8" t="n">
-        <v>9.16</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>10.44</v>
+        <v>10.48</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -708,7 +708,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>11.06</v>
+        <v>11.24</v>
       </c>
       <c r="G9" t="n">
         <v>12.83</v>
@@ -743,7 +743,7 @@
         <v>12.29</v>
       </c>
       <c r="G10" t="n">
-        <v>10.64</v>
+        <v>10.42</v>
       </c>
       <c r="H10" t="n">
         <v>7.6</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -510,13 +510,13 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.37</v>
+        <v>10.43</v>
       </c>
       <c r="E3" t="n">
-        <v>10.82</v>
+        <v>10.88</v>
       </c>
       <c r="F3" t="n">
-        <v>10.26</v>
+        <v>10.38</v>
       </c>
       <c r="G3" t="n">
         <v>11.54</v>
@@ -528,7 +528,7 @@
         <v>14</v>
       </c>
       <c r="J3" t="n">
-        <v>16</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="4">
@@ -539,16 +539,16 @@
         <v>8.58</v>
       </c>
       <c r="C4" t="n">
-        <v>9.630000000000001</v>
+        <v>9.57</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.6</v>
+        <v>10.59</v>
       </c>
       <c r="F4" t="n">
-        <v>10.1</v>
+        <v>10.09</v>
       </c>
       <c r="G4" t="n">
         <v>10.38</v>
@@ -571,22 +571,22 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>9.18</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>9.4</v>
+        <v>9.41</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.31</v>
+        <v>10.29</v>
       </c>
       <c r="G5" t="n">
         <v>9.609999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>8.710000000000001</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="I5" t="n">
         <v>8</v>
@@ -603,19 +603,19 @@
         <v>9.800000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>9.74</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>9.9</v>
+        <v>9.91</v>
       </c>
       <c r="E6" t="n">
-        <v>9.69</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.4</v>
+        <v>10.43</v>
       </c>
       <c r="H6" t="n">
         <v>10.89</v>
@@ -644,13 +644,13 @@
         <v>10.39</v>
       </c>
       <c r="F7" t="n">
-        <v>9.6</v>
+        <v>9.57</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.52</v>
+        <v>9.69</v>
       </c>
       <c r="I7" t="n">
         <v>7.17</v>
@@ -673,19 +673,19 @@
         <v>9.5</v>
       </c>
       <c r="E8" t="n">
-        <v>11.29</v>
+        <v>11.12</v>
       </c>
       <c r="F8" t="n">
         <v>9.109999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>10.48</v>
+        <v>10.31</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>7.62</v>
+        <v>7.33</v>
       </c>
       <c r="J8" t="n">
         <v>12.4</v>
@@ -714,7 +714,7 @@
         <v>12.83</v>
       </c>
       <c r="H9" t="n">
-        <v>12.38</v>
+        <v>12.67</v>
       </c>
       <c r="I9" t="n">
         <v>10</v>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>10.5</v>
       </c>
       <c r="D10" t="n">
         <v>13</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -475,7 +475,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>11.32</v>
+        <v>11.15</v>
       </c>
       <c r="D2" t="n">
         <v>11.42</v>
@@ -504,16 +504,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.68</v>
+        <v>8.85</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.43</v>
+        <v>10.47</v>
       </c>
       <c r="E3" t="n">
-        <v>10.88</v>
+        <v>10.92</v>
       </c>
       <c r="F3" t="n">
         <v>10.38</v>
@@ -539,16 +539,16 @@
         <v>8.58</v>
       </c>
       <c r="C4" t="n">
-        <v>9.57</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.59</v>
+        <v>10.56</v>
       </c>
       <c r="F4" t="n">
-        <v>10.09</v>
+        <v>10.1</v>
       </c>
       <c r="G4" t="n">
         <v>10.38</v>
@@ -571,22 +571,22 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>9.119999999999999</v>
+        <v>9.08</v>
       </c>
       <c r="D5" t="n">
-        <v>9.41</v>
+        <v>9.44</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.29</v>
+        <v>10.32</v>
       </c>
       <c r="G5" t="n">
         <v>9.609999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>8.880000000000001</v>
+        <v>8.85</v>
       </c>
       <c r="I5" t="n">
         <v>8</v>
@@ -606,16 +606,16 @@
         <v>9.619999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>9.91</v>
+        <v>9.9</v>
       </c>
       <c r="E6" t="n">
-        <v>9.710000000000001</v>
+        <v>9.68</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.43</v>
+        <v>10.4</v>
       </c>
       <c r="H6" t="n">
         <v>10.89</v>
@@ -644,13 +644,13 @@
         <v>10.39</v>
       </c>
       <c r="F7" t="n">
-        <v>9.57</v>
+        <v>9.6</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.69</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="I7" t="n">
         <v>7.17</v>
@@ -673,13 +673,13 @@
         <v>9.5</v>
       </c>
       <c r="E8" t="n">
-        <v>11.12</v>
+        <v>11.15</v>
       </c>
       <c r="F8" t="n">
         <v>9.109999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>10.31</v>
+        <v>10.36</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -688,7 +688,7 @@
         <v>7.33</v>
       </c>
       <c r="J8" t="n">
-        <v>12.4</v>
+        <v>11.33</v>
       </c>
     </row>
     <row r="9">
@@ -720,7 +720,7 @@
         <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>13.75</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="10">
@@ -746,10 +746,10 @@
         <v>10.42</v>
       </c>
       <c r="H10" t="n">
-        <v>7.6</v>
+        <v>8.67</v>
       </c>
       <c r="I10" t="n">
-        <v>6.25</v>
+        <v>5.6</v>
       </c>
       <c r="J10" t="n">
         <v>10</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -475,7 +475,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>11.15</v>
+        <v>10.78</v>
       </c>
       <c r="D2" t="n">
         <v>11.42</v>
@@ -504,19 +504,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.85</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.47</v>
+        <v>10.55</v>
       </c>
       <c r="E3" t="n">
-        <v>10.92</v>
+        <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>10.38</v>
+        <v>10.45</v>
       </c>
       <c r="G3" t="n">
         <v>11.54</v>
@@ -539,16 +539,16 @@
         <v>8.58</v>
       </c>
       <c r="C4" t="n">
-        <v>9.529999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.56</v>
+        <v>10.59</v>
       </c>
       <c r="F4" t="n">
-        <v>10.1</v>
+        <v>10.14</v>
       </c>
       <c r="G4" t="n">
         <v>10.38</v>
@@ -571,22 +571,22 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>9.08</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>9.44</v>
+        <v>9.41</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.32</v>
+        <v>10.35</v>
       </c>
       <c r="G5" t="n">
-        <v>9.609999999999999</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>8.85</v>
+        <v>8.93</v>
       </c>
       <c r="I5" t="n">
         <v>8</v>
@@ -603,25 +603,25 @@
         <v>9.800000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>9.619999999999999</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>9.9</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>9.68</v>
+        <v>9.65</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.4</v>
+        <v>10.36</v>
       </c>
       <c r="H6" t="n">
-        <v>10.89</v>
+        <v>10.8</v>
       </c>
       <c r="I6" t="n">
-        <v>8.76</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="J6" t="n">
         <v>7.71</v>
@@ -641,10 +641,10 @@
         <v>9.619999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>10.39</v>
+        <v>10.28</v>
       </c>
       <c r="F7" t="n">
-        <v>9.6</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -653,7 +653,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>7.17</v>
+        <v>6.5</v>
       </c>
       <c r="J7" t="n">
         <v>9.58</v>
@@ -673,10 +673,10 @@
         <v>9.5</v>
       </c>
       <c r="E8" t="n">
-        <v>11.15</v>
+        <v>11.07</v>
       </c>
       <c r="F8" t="n">
-        <v>9.109999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G8" t="n">
         <v>10.36</v>
@@ -708,10 +708,10 @@
         <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>11.24</v>
+        <v>11.39</v>
       </c>
       <c r="G9" t="n">
-        <v>12.83</v>
+        <v>13.5</v>
       </c>
       <c r="H9" t="n">
         <v>12.67</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -478,7 +478,7 @@
         <v>10.78</v>
       </c>
       <c r="D2" t="n">
-        <v>11.42</v>
+        <v>11.15</v>
       </c>
       <c r="E2" t="n">
         <v>11</v>
@@ -510,13 +510,13 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.55</v>
+        <v>10.54</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>10.85</v>
       </c>
       <c r="F3" t="n">
-        <v>10.45</v>
+        <v>10.35</v>
       </c>
       <c r="G3" t="n">
         <v>11.54</v>
@@ -536,16 +536,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.58</v>
+        <v>8.85</v>
       </c>
       <c r="C4" t="n">
-        <v>9.449999999999999</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.59</v>
+        <v>10.61</v>
       </c>
       <c r="F4" t="n">
         <v>10.14</v>
@@ -571,16 +571,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>9.15</v>
       </c>
       <c r="D5" t="n">
-        <v>9.41</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.35</v>
+        <v>10.36</v>
       </c>
       <c r="G5" t="n">
         <v>9.720000000000001</v>
@@ -603,19 +603,19 @@
         <v>9.800000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>9.550000000000001</v>
+        <v>9.65</v>
       </c>
       <c r="D6" t="n">
         <v>9.859999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>9.65</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.36</v>
+        <v>10.38</v>
       </c>
       <c r="H6" t="n">
         <v>10.8</v>
@@ -644,16 +644,16 @@
         <v>10.28</v>
       </c>
       <c r="F7" t="n">
-        <v>9.640000000000001</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.640000000000001</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>6.5</v>
+        <v>6.44</v>
       </c>
       <c r="J7" t="n">
         <v>9.58</v>
@@ -679,7 +679,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>10.36</v>
+        <v>10.46</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -711,7 +711,7 @@
         <v>11.39</v>
       </c>
       <c r="G9" t="n">
-        <v>13.5</v>
+        <v>13.56</v>
       </c>
       <c r="H9" t="n">
         <v>12.67</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -478,10 +478,10 @@
         <v>10.78</v>
       </c>
       <c r="D2" t="n">
-        <v>11.15</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>10.65</v>
       </c>
       <c r="F2" t="n">
         <v>10.2</v>
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.54</v>
+        <v>10.5</v>
       </c>
       <c r="E3" t="n">
         <v>10.85</v>
@@ -536,19 +536,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.85</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>9.460000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.61</v>
+        <v>10.67</v>
       </c>
       <c r="F4" t="n">
-        <v>10.14</v>
+        <v>10.11</v>
       </c>
       <c r="G4" t="n">
         <v>10.38</v>
@@ -568,25 +568,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>9.35</v>
       </c>
       <c r="C5" t="n">
         <v>9.15</v>
       </c>
       <c r="D5" t="n">
-        <v>9.390000000000001</v>
+        <v>9.33</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.36</v>
+        <v>10.35</v>
       </c>
       <c r="G5" t="n">
         <v>9.720000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>8.93</v>
+        <v>8.83</v>
       </c>
       <c r="I5" t="n">
         <v>8</v>
@@ -606,19 +606,19 @@
         <v>9.65</v>
       </c>
       <c r="D6" t="n">
-        <v>9.859999999999999</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>9.640000000000001</v>
+        <v>9.65</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.38</v>
+        <v>10.27</v>
       </c>
       <c r="H6" t="n">
-        <v>10.8</v>
+        <v>10.74</v>
       </c>
       <c r="I6" t="n">
         <v>8.609999999999999</v>
@@ -644,7 +644,7 @@
         <v>10.28</v>
       </c>
       <c r="F7" t="n">
-        <v>9.619999999999999</v>
+        <v>9.73</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -656,7 +656,7 @@
         <v>6.44</v>
       </c>
       <c r="J7" t="n">
-        <v>9.58</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -673,10 +673,10 @@
         <v>9.5</v>
       </c>
       <c r="E8" t="n">
-        <v>11.07</v>
+        <v>11.17</v>
       </c>
       <c r="F8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.26</v>
       </c>
       <c r="G8" t="n">
         <v>10.46</v>
@@ -688,7 +688,7 @@
         <v>7.33</v>
       </c>
       <c r="J8" t="n">
-        <v>11.33</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="9">
@@ -743,10 +743,10 @@
         <v>12.29</v>
       </c>
       <c r="G10" t="n">
-        <v>10.42</v>
+        <v>10.62</v>
       </c>
       <c r="H10" t="n">
-        <v>8.67</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="I10" t="n">
         <v>5.6</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -475,7 +475,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>10.78</v>
+        <v>10.67</v>
       </c>
       <c r="D2" t="n">
         <v>11</v>
@@ -504,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.220000000000001</v>
+        <v>9.33</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
@@ -513,7 +513,7 @@
         <v>10.5</v>
       </c>
       <c r="E3" t="n">
-        <v>10.85</v>
+        <v>10.86</v>
       </c>
       <c r="F3" t="n">
         <v>10.35</v>
@@ -545,7 +545,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.67</v>
+        <v>10.68</v>
       </c>
       <c r="F4" t="n">
         <v>10.11</v>
@@ -571,16 +571,16 @@
         <v>9.35</v>
       </c>
       <c r="C5" t="n">
-        <v>9.15</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>9.33</v>
+        <v>9.32</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.35</v>
+        <v>10.36</v>
       </c>
       <c r="G5" t="n">
         <v>9.720000000000001</v>
@@ -592,7 +592,7 @@
         <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="6">
@@ -609,13 +609,13 @@
         <v>9.890000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>9.65</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.27</v>
+        <v>10.29</v>
       </c>
       <c r="H6" t="n">
         <v>10.74</v>
@@ -644,13 +644,13 @@
         <v>10.28</v>
       </c>
       <c r="F7" t="n">
-        <v>9.73</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.539999999999999</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="I7" t="n">
         <v>6.44</v>
@@ -679,16 +679,16 @@
         <v>9.26</v>
       </c>
       <c r="G8" t="n">
-        <v>10.46</v>
+        <v>10.37</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>7.33</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>11.71</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
         <v>13.56</v>
       </c>
       <c r="H9" t="n">
-        <v>12.67</v>
+        <v>11.8</v>
       </c>
       <c r="I9" t="n">
         <v>10</v>
@@ -737,7 +737,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="n">
-        <v>13</v>
+        <v>12.38</v>
       </c>
       <c r="F10" t="n">
         <v>12.29</v>
@@ -746,7 +746,7 @@
         <v>10.62</v>
       </c>
       <c r="H10" t="n">
-        <v>8.289999999999999</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="I10" t="n">
         <v>5.6</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -475,7 +475,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>10.67</v>
+        <v>10.4</v>
       </c>
       <c r="D2" t="n">
         <v>11</v>
@@ -504,19 +504,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.33</v>
+        <v>9.6</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="E3" t="n">
         <v>10.86</v>
       </c>
       <c r="F3" t="n">
-        <v>10.35</v>
+        <v>10.26</v>
       </c>
       <c r="G3" t="n">
         <v>11.54</v>
@@ -539,16 +539,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.68</v>
+        <v>10.65</v>
       </c>
       <c r="F4" t="n">
-        <v>10.11</v>
+        <v>10.14</v>
       </c>
       <c r="G4" t="n">
         <v>10.38</v>
@@ -574,22 +574,22 @@
         <v>9.140000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>9.32</v>
+        <v>9.35</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.36</v>
+        <v>10.31</v>
       </c>
       <c r="G5" t="n">
-        <v>9.720000000000001</v>
+        <v>9.65</v>
       </c>
       <c r="H5" t="n">
         <v>8.83</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
         <v>7.62</v>
@@ -603,22 +603,22 @@
         <v>9.800000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>9.65</v>
+        <v>9.74</v>
       </c>
       <c r="D6" t="n">
-        <v>9.890000000000001</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>9.640000000000001</v>
+        <v>9.69</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.29</v>
+        <v>10.28</v>
       </c>
       <c r="H6" t="n">
-        <v>10.74</v>
+        <v>10.69</v>
       </c>
       <c r="I6" t="n">
         <v>8.609999999999999</v>
@@ -641,16 +641,16 @@
         <v>9.619999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>10.28</v>
+        <v>10.35</v>
       </c>
       <c r="F7" t="n">
-        <v>9.710000000000001</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.630000000000001</v>
+        <v>9.65</v>
       </c>
       <c r="I7" t="n">
         <v>6.44</v>
@@ -676,16 +676,16 @@
         <v>11.17</v>
       </c>
       <c r="F8" t="n">
-        <v>9.26</v>
+        <v>9.31</v>
       </c>
       <c r="G8" t="n">
-        <v>10.37</v>
+        <v>10.35</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.82</v>
       </c>
       <c r="J8" t="n">
         <v>10.88</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
         <v>11.39</v>
@@ -714,7 +714,7 @@
         <v>13.56</v>
       </c>
       <c r="H9" t="n">
-        <v>11.8</v>
+        <v>11.18</v>
       </c>
       <c r="I9" t="n">
         <v>10</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -475,10 +475,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>10.4</v>
+        <v>10.31</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>11.7</v>
       </c>
       <c r="E2" t="n">
         <v>10.65</v>
@@ -504,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.6</v>
+        <v>9.69</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
@@ -513,10 +513,10 @@
         <v>10.4</v>
       </c>
       <c r="E3" t="n">
-        <v>10.86</v>
+        <v>10.83</v>
       </c>
       <c r="F3" t="n">
-        <v>10.26</v>
+        <v>10.31</v>
       </c>
       <c r="G3" t="n">
         <v>11.54</v>
@@ -536,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C4" t="n">
         <v>9.6</v>
@@ -545,10 +545,10 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.65</v>
+        <v>10.71</v>
       </c>
       <c r="F4" t="n">
-        <v>10.14</v>
+        <v>10.08</v>
       </c>
       <c r="G4" t="n">
         <v>10.38</v>
@@ -571,16 +571,16 @@
         <v>9.35</v>
       </c>
       <c r="C5" t="n">
-        <v>9.140000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="D5" t="n">
-        <v>9.35</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.31</v>
+        <v>10.26</v>
       </c>
       <c r="G5" t="n">
         <v>9.65</v>
@@ -589,7 +589,7 @@
         <v>8.83</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>6.71</v>
       </c>
       <c r="J5" t="n">
         <v>7.62</v>
@@ -603,25 +603,25 @@
         <v>9.800000000000001</v>
       </c>
       <c r="C6" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="E6" t="n">
         <v>9.74</v>
       </c>
-      <c r="D6" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9.69</v>
-      </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.28</v>
+        <v>10.35</v>
       </c>
       <c r="H6" t="n">
-        <v>10.69</v>
+        <v>10.56</v>
       </c>
       <c r="I6" t="n">
-        <v>8.609999999999999</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="J6" t="n">
         <v>7.71</v>
@@ -644,13 +644,13 @@
         <v>10.35</v>
       </c>
       <c r="F7" t="n">
-        <v>9.720000000000001</v>
+        <v>9.65</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.65</v>
+        <v>9.77</v>
       </c>
       <c r="I7" t="n">
         <v>6.44</v>
@@ -676,10 +676,10 @@
         <v>11.17</v>
       </c>
       <c r="F8" t="n">
-        <v>9.31</v>
+        <v>9.44</v>
       </c>
       <c r="G8" t="n">
-        <v>10.35</v>
+        <v>10.23</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>13</v>
+        <v>13.29</v>
       </c>
       <c r="F9" t="n">
-        <v>11.39</v>
+        <v>11.47</v>
       </c>
       <c r="G9" t="n">
         <v>13.56</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -475,7 +475,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>10.31</v>
+        <v>10.11</v>
       </c>
       <c r="D2" t="n">
         <v>11.7</v>
@@ -504,16 +504,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.69</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.4</v>
+        <v>10.44</v>
       </c>
       <c r="E3" t="n">
-        <v>10.83</v>
+        <v>10.74</v>
       </c>
       <c r="F3" t="n">
         <v>10.31</v>
@@ -539,16 +539,16 @@
         <v>8.300000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>9.6</v>
+        <v>9.56</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.71</v>
+        <v>10.67</v>
       </c>
       <c r="F4" t="n">
-        <v>10.08</v>
+        <v>10.19</v>
       </c>
       <c r="G4" t="n">
         <v>10.38</v>
@@ -571,10 +571,10 @@
         <v>9.35</v>
       </c>
       <c r="C5" t="n">
-        <v>9.17</v>
+        <v>9.26</v>
       </c>
       <c r="D5" t="n">
-        <v>9.289999999999999</v>
+        <v>9.33</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -583,7 +583,7 @@
         <v>10.26</v>
       </c>
       <c r="G5" t="n">
-        <v>9.65</v>
+        <v>9.75</v>
       </c>
       <c r="H5" t="n">
         <v>8.83</v>
@@ -606,7 +606,7 @@
         <v>9.69</v>
       </c>
       <c r="D6" t="n">
-        <v>9.92</v>
+        <v>9.81</v>
       </c>
       <c r="E6" t="n">
         <v>9.74</v>
@@ -615,10 +615,10 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.35</v>
+        <v>10.32</v>
       </c>
       <c r="H6" t="n">
-        <v>10.56</v>
+        <v>10.47</v>
       </c>
       <c r="I6" t="n">
         <v>8.529999999999999</v>
@@ -641,19 +641,19 @@
         <v>9.619999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>10.35</v>
+        <v>10.25</v>
       </c>
       <c r="F7" t="n">
-        <v>9.65</v>
+        <v>9.68</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.77</v>
+        <v>9.81</v>
       </c>
       <c r="I7" t="n">
-        <v>6.44</v>
+        <v>6.3</v>
       </c>
       <c r="J7" t="n">
         <v>9.380000000000001</v>
@@ -676,16 +676,16 @@
         <v>11.17</v>
       </c>
       <c r="F8" t="n">
-        <v>9.44</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>10.23</v>
+        <v>10.19</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>8.82</v>
+        <v>8.67</v>
       </c>
       <c r="J8" t="n">
         <v>10.88</v>
@@ -711,10 +711,10 @@
         <v>11.47</v>
       </c>
       <c r="G9" t="n">
-        <v>13.56</v>
+        <v>13.7</v>
       </c>
       <c r="H9" t="n">
-        <v>11.18</v>
+        <v>11.33</v>
       </c>
       <c r="I9" t="n">
         <v>10</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.44</v>
+        <v>10.35</v>
       </c>
       <c r="E3" t="n">
-        <v>10.74</v>
+        <v>10.75</v>
       </c>
       <c r="F3" t="n">
         <v>10.31</v>
@@ -539,16 +539,16 @@
         <v>8.300000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>9.56</v>
+        <v>9.65</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.67</v>
+        <v>10.69</v>
       </c>
       <c r="F4" t="n">
-        <v>10.19</v>
+        <v>10.12</v>
       </c>
       <c r="G4" t="n">
         <v>10.38</v>
@@ -571,22 +571,22 @@
         <v>9.35</v>
       </c>
       <c r="C5" t="n">
-        <v>9.26</v>
+        <v>9.25</v>
       </c>
       <c r="D5" t="n">
-        <v>9.33</v>
+        <v>9.31</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.26</v>
+        <v>10.19</v>
       </c>
       <c r="G5" t="n">
         <v>9.75</v>
       </c>
       <c r="H5" t="n">
-        <v>8.83</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I5" t="n">
         <v>6.71</v>
@@ -606,16 +606,16 @@
         <v>9.69</v>
       </c>
       <c r="D6" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="E6" t="n">
         <v>9.81</v>
       </c>
-      <c r="E6" t="n">
-        <v>9.74</v>
-      </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.32</v>
+        <v>10.3</v>
       </c>
       <c r="H6" t="n">
         <v>10.47</v>
@@ -624,7 +624,7 @@
         <v>8.529999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>7.71</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="7">
@@ -644,16 +644,16 @@
         <v>10.25</v>
       </c>
       <c r="F7" t="n">
-        <v>9.68</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.81</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>6.3</v>
+        <v>5.91</v>
       </c>
       <c r="J7" t="n">
         <v>9.380000000000001</v>
@@ -673,19 +673,19 @@
         <v>9.5</v>
       </c>
       <c r="E8" t="n">
-        <v>11.17</v>
+        <v>11.3</v>
       </c>
       <c r="F8" t="n">
         <v>9.529999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>10.19</v>
+        <v>10.13</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>8.67</v>
+        <v>9.08</v>
       </c>
       <c r="J8" t="n">
         <v>10.88</v>
@@ -711,10 +711,10 @@
         <v>11.47</v>
       </c>
       <c r="G9" t="n">
-        <v>13.7</v>
+        <v>14.09</v>
       </c>
       <c r="H9" t="n">
-        <v>11.33</v>
+        <v>10.92</v>
       </c>
       <c r="I9" t="n">
         <v>10</v>
@@ -740,7 +740,7 @@
         <v>12.38</v>
       </c>
       <c r="F10" t="n">
-        <v>12.29</v>
+        <v>12.4</v>
       </c>
       <c r="G10" t="n">
         <v>10.62</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.35</v>
+        <v>10.31</v>
       </c>
       <c r="E3" t="n">
-        <v>10.75</v>
+        <v>10.76</v>
       </c>
       <c r="F3" t="n">
         <v>10.31</v>
@@ -539,19 +539,19 @@
         <v>8.300000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>9.65</v>
+        <v>9.69</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.69</v>
+        <v>10.64</v>
       </c>
       <c r="F4" t="n">
         <v>10.12</v>
       </c>
       <c r="G4" t="n">
-        <v>10.38</v>
+        <v>10.12</v>
       </c>
       <c r="H4" t="n">
         <v>10.5</v>
@@ -571,19 +571,19 @@
         <v>9.35</v>
       </c>
       <c r="C5" t="n">
-        <v>9.25</v>
+        <v>9.19</v>
       </c>
       <c r="D5" t="n">
-        <v>9.31</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.19</v>
+        <v>10.22</v>
       </c>
       <c r="G5" t="n">
-        <v>9.75</v>
+        <v>9.68</v>
       </c>
       <c r="H5" t="n">
         <v>8.699999999999999</v>
@@ -609,16 +609,16 @@
         <v>9.880000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>9.81</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.3</v>
+        <v>10.31</v>
       </c>
       <c r="H6" t="n">
-        <v>10.47</v>
+        <v>10.4</v>
       </c>
       <c r="I6" t="n">
         <v>8.529999999999999</v>
@@ -638,13 +638,13 @@
         <v>8.460000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>9.619999999999999</v>
+        <v>10.06</v>
       </c>
       <c r="E7" t="n">
-        <v>10.25</v>
+        <v>10.32</v>
       </c>
       <c r="F7" t="n">
-        <v>9.699999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -653,7 +653,7 @@
         <v>9.869999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>5.91</v>
+        <v>6.58</v>
       </c>
       <c r="J7" t="n">
         <v>9.380000000000001</v>
@@ -676,7 +676,7 @@
         <v>11.3</v>
       </c>
       <c r="F8" t="n">
-        <v>9.529999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="G8" t="n">
         <v>10.13</v>
@@ -688,7 +688,7 @@
         <v>9.08</v>
       </c>
       <c r="J8" t="n">
-        <v>10.88</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="9">
@@ -711,7 +711,7 @@
         <v>11.47</v>
       </c>
       <c r="G9" t="n">
-        <v>14.09</v>
+        <v>13.42</v>
       </c>
       <c r="H9" t="n">
         <v>10.92</v>
@@ -746,7 +746,7 @@
         <v>10.62</v>
       </c>
       <c r="H10" t="n">
-        <v>9.119999999999999</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="I10" t="n">
         <v>5.6</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.31</v>
+        <v>10.34</v>
       </c>
       <c r="E3" t="n">
-        <v>10.76</v>
+        <v>10.72</v>
       </c>
       <c r="F3" t="n">
         <v>10.31</v>
@@ -539,22 +539,22 @@
         <v>8.300000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>9.69</v>
+        <v>9.66</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.64</v>
+        <v>10.68</v>
       </c>
       <c r="F4" t="n">
-        <v>10.12</v>
+        <v>10.13</v>
       </c>
       <c r="G4" t="n">
         <v>10.12</v>
       </c>
       <c r="H4" t="n">
-        <v>10.5</v>
+        <v>8.67</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -571,16 +571,16 @@
         <v>9.35</v>
       </c>
       <c r="C5" t="n">
-        <v>9.19</v>
+        <v>9.23</v>
       </c>
       <c r="D5" t="n">
-        <v>9.359999999999999</v>
+        <v>9.32</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.22</v>
+        <v>10.2</v>
       </c>
       <c r="G5" t="n">
         <v>9.68</v>
@@ -606,16 +606,16 @@
         <v>9.69</v>
       </c>
       <c r="D6" t="n">
-        <v>9.880000000000001</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>9.779999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.31</v>
+        <v>10.3</v>
       </c>
       <c r="H6" t="n">
         <v>10.4</v>
@@ -644,7 +644,7 @@
         <v>10.32</v>
       </c>
       <c r="F7" t="n">
-        <v>9.69</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -653,7 +653,7 @@
         <v>9.869999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>6.58</v>
+        <v>7.08</v>
       </c>
       <c r="J7" t="n">
         <v>9.380000000000001</v>
@@ -670,7 +670,7 @@
         <v>8.57</v>
       </c>
       <c r="D8" t="n">
-        <v>9.5</v>
+        <v>11.33</v>
       </c>
       <c r="E8" t="n">
         <v>11.3</v>
@@ -685,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>9.08</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="J8" t="n">
         <v>11.22</v>
@@ -711,10 +711,10 @@
         <v>11.47</v>
       </c>
       <c r="G9" t="n">
-        <v>13.42</v>
+        <v>12.92</v>
       </c>
       <c r="H9" t="n">
-        <v>10.92</v>
+        <v>11.14</v>
       </c>
       <c r="I9" t="n">
         <v>10</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -481,13 +481,13 @@
         <v>11.7</v>
       </c>
       <c r="E2" t="n">
-        <v>10.65</v>
+        <v>10.78</v>
       </c>
       <c r="F2" t="n">
         <v>10.2</v>
       </c>
       <c r="G2" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>8</v>
@@ -545,7 +545,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.68</v>
+        <v>10.66</v>
       </c>
       <c r="F4" t="n">
         <v>10.13</v>
@@ -554,7 +554,7 @@
         <v>10.12</v>
       </c>
       <c r="H4" t="n">
-        <v>8.67</v>
+        <v>9.5</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -568,19 +568,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.35</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="C5" t="n">
         <v>9.23</v>
       </c>
       <c r="D5" t="n">
-        <v>9.32</v>
+        <v>9.34</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.2</v>
+        <v>10.13</v>
       </c>
       <c r="G5" t="n">
         <v>9.68</v>
@@ -609,7 +609,7 @@
         <v>9.869999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -618,7 +618,7 @@
         <v>10.3</v>
       </c>
       <c r="H6" t="n">
-        <v>10.4</v>
+        <v>10.35</v>
       </c>
       <c r="I6" t="n">
         <v>8.529999999999999</v>
@@ -632,7 +632,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
         <v>8.460000000000001</v>
@@ -670,13 +670,13 @@
         <v>8.57</v>
       </c>
       <c r="D8" t="n">
-        <v>11.33</v>
+        <v>10.5</v>
       </c>
       <c r="E8" t="n">
         <v>11.3</v>
       </c>
       <c r="F8" t="n">
-        <v>9.6</v>
+        <v>9.65</v>
       </c>
       <c r="G8" t="n">
         <v>10.13</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -490,7 +490,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -510,13 +510,13 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.34</v>
+        <v>10.31</v>
       </c>
       <c r="E3" t="n">
         <v>10.72</v>
       </c>
       <c r="F3" t="n">
-        <v>10.31</v>
+        <v>10.35</v>
       </c>
       <c r="G3" t="n">
         <v>11.54</v>
@@ -539,16 +539,16 @@
         <v>8.300000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>9.66</v>
+        <v>9.69</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.66</v>
+        <v>10.7</v>
       </c>
       <c r="F4" t="n">
-        <v>10.13</v>
+        <v>10.18</v>
       </c>
       <c r="G4" t="n">
         <v>10.12</v>
@@ -574,13 +574,13 @@
         <v>9.23</v>
       </c>
       <c r="D5" t="n">
-        <v>9.34</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.13</v>
+        <v>10.18</v>
       </c>
       <c r="G5" t="n">
         <v>9.68</v>
@@ -589,7 +589,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>6.71</v>
+        <v>7.62</v>
       </c>
       <c r="J5" t="n">
         <v>7.62</v>
@@ -603,22 +603,22 @@
         <v>9.800000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>9.69</v>
+        <v>9.65</v>
       </c>
       <c r="D6" t="n">
-        <v>9.869999999999999</v>
+        <v>9.82</v>
       </c>
       <c r="E6" t="n">
-        <v>9.869999999999999</v>
+        <v>9.82</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.3</v>
+        <v>10.31</v>
       </c>
       <c r="H6" t="n">
-        <v>10.35</v>
+        <v>10.38</v>
       </c>
       <c r="I6" t="n">
         <v>8.529999999999999</v>
@@ -644,7 +644,7 @@
         <v>10.32</v>
       </c>
       <c r="F7" t="n">
-        <v>9.699999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -664,7 +664,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
         <v>8.57</v>
@@ -676,7 +676,7 @@
         <v>11.3</v>
       </c>
       <c r="F8" t="n">
-        <v>9.65</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="G8" t="n">
         <v>10.13</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>13.29</v>
+        <v>12.38</v>
       </c>
       <c r="F9" t="n">
         <v>11.47</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -475,7 +475,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>10.11</v>
+        <v>10.04</v>
       </c>
       <c r="D2" t="n">
         <v>11.7</v>
@@ -504,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.890000000000001</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
@@ -513,7 +513,7 @@
         <v>10.31</v>
       </c>
       <c r="E3" t="n">
-        <v>10.72</v>
+        <v>10.65</v>
       </c>
       <c r="F3" t="n">
         <v>10.35</v>
@@ -548,7 +548,7 @@
         <v>10.7</v>
       </c>
       <c r="F4" t="n">
-        <v>10.18</v>
+        <v>10.23</v>
       </c>
       <c r="G4" t="n">
         <v>10.12</v>
@@ -571,7 +571,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>9.23</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D5" t="n">
         <v>9.300000000000001</v>
@@ -580,13 +580,13 @@
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.18</v>
+        <v>10.19</v>
       </c>
       <c r="G5" t="n">
         <v>9.68</v>
       </c>
       <c r="H5" t="n">
-        <v>8.699999999999999</v>
+        <v>8.65</v>
       </c>
       <c r="I5" t="n">
         <v>7.62</v>
@@ -606,22 +606,22 @@
         <v>9.65</v>
       </c>
       <c r="D6" t="n">
-        <v>9.82</v>
+        <v>9.77</v>
       </c>
       <c r="E6" t="n">
-        <v>9.82</v>
+        <v>9.81</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.31</v>
+        <v>10.33</v>
       </c>
       <c r="H6" t="n">
-        <v>10.38</v>
+        <v>10.46</v>
       </c>
       <c r="I6" t="n">
-        <v>8.529999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="J6" t="n">
         <v>7.6</v>
@@ -644,16 +644,16 @@
         <v>10.32</v>
       </c>
       <c r="F7" t="n">
-        <v>9.69</v>
+        <v>9.67</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.869999999999999</v>
+        <v>9.93</v>
       </c>
       <c r="I7" t="n">
-        <v>7.08</v>
+        <v>7.5</v>
       </c>
       <c r="J7" t="n">
         <v>9.380000000000001</v>
@@ -673,13 +673,13 @@
         <v>10.5</v>
       </c>
       <c r="E8" t="n">
-        <v>11.3</v>
+        <v>11.35</v>
       </c>
       <c r="F8" t="n">
-        <v>9.619999999999999</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>10.13</v>
+        <v>10.07</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -708,10 +708,10 @@
         <v>12.38</v>
       </c>
       <c r="F9" t="n">
-        <v>11.47</v>
+        <v>11.1</v>
       </c>
       <c r="G9" t="n">
-        <v>12.92</v>
+        <v>12.5</v>
       </c>
       <c r="H9" t="n">
         <v>11.14</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -548,7 +548,7 @@
         <v>10.7</v>
       </c>
       <c r="F4" t="n">
-        <v>10.23</v>
+        <v>10.16</v>
       </c>
       <c r="G4" t="n">
         <v>10.12</v>
@@ -580,10 +580,10 @@
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.19</v>
+        <v>10.18</v>
       </c>
       <c r="G5" t="n">
-        <v>9.68</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="H5" t="n">
         <v>8.65</v>
@@ -606,19 +606,19 @@
         <v>9.65</v>
       </c>
       <c r="D6" t="n">
-        <v>9.77</v>
+        <v>9.84</v>
       </c>
       <c r="E6" t="n">
-        <v>9.81</v>
+        <v>9.82</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.33</v>
+        <v>10.34</v>
       </c>
       <c r="H6" t="n">
-        <v>10.46</v>
+        <v>10.48</v>
       </c>
       <c r="I6" t="n">
         <v>8.9</v>
@@ -641,16 +641,16 @@
         <v>10.06</v>
       </c>
       <c r="E7" t="n">
-        <v>10.32</v>
+        <v>10.28</v>
       </c>
       <c r="F7" t="n">
-        <v>9.67</v>
+        <v>9.66</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.93</v>
+        <v>9.98</v>
       </c>
       <c r="I7" t="n">
         <v>7.5</v>
@@ -676,16 +676,16 @@
         <v>11.35</v>
       </c>
       <c r="F8" t="n">
-        <v>9.539999999999999</v>
+        <v>9.52</v>
       </c>
       <c r="G8" t="n">
-        <v>10.07</v>
+        <v>10.02</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>8.859999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J8" t="n">
         <v>11.22</v>
@@ -714,7 +714,7 @@
         <v>12.5</v>
       </c>
       <c r="H9" t="n">
-        <v>11.14</v>
+        <v>11.2</v>
       </c>
       <c r="I9" t="n">
         <v>10</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -478,7 +478,7 @@
         <v>10.04</v>
       </c>
       <c r="D2" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E2" t="n">
         <v>10.78</v>
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.31</v>
+        <v>10.25</v>
       </c>
       <c r="E3" t="n">
         <v>10.65</v>
@@ -536,10 +536,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="C4" t="n">
-        <v>9.69</v>
+        <v>9.75</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
@@ -580,13 +580,13 @@
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.18</v>
+        <v>10.2</v>
       </c>
       <c r="G5" t="n">
         <v>9.720000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>8.65</v>
+        <v>8.5</v>
       </c>
       <c r="I5" t="n">
         <v>7.62</v>
@@ -609,13 +609,13 @@
         <v>9.84</v>
       </c>
       <c r="E6" t="n">
-        <v>9.82</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.34</v>
+        <v>10.33</v>
       </c>
       <c r="H6" t="n">
         <v>10.48</v>
@@ -644,16 +644,16 @@
         <v>10.28</v>
       </c>
       <c r="F7" t="n">
-        <v>9.66</v>
+        <v>9.67</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.98</v>
+        <v>10.07</v>
       </c>
       <c r="I7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
         <v>9.380000000000001</v>
@@ -673,13 +673,13 @@
         <v>10.5</v>
       </c>
       <c r="E8" t="n">
-        <v>11.35</v>
+        <v>11.5</v>
       </c>
       <c r="F8" t="n">
         <v>9.52</v>
       </c>
       <c r="G8" t="n">
-        <v>10.02</v>
+        <v>9.93</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -711,7 +711,7 @@
         <v>11.1</v>
       </c>
       <c r="G9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="H9" t="n">
         <v>11.2</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -545,10 +545,10 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.7</v>
+        <v>10.72</v>
       </c>
       <c r="F4" t="n">
-        <v>10.16</v>
+        <v>10.08</v>
       </c>
       <c r="G4" t="n">
         <v>10.12</v>
@@ -574,13 +574,13 @@
         <v>9.300000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>9.300000000000001</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.2</v>
+        <v>10.19</v>
       </c>
       <c r="G5" t="n">
         <v>9.720000000000001</v>
@@ -606,10 +606,10 @@
         <v>9.65</v>
       </c>
       <c r="D6" t="n">
-        <v>9.84</v>
+        <v>9.92</v>
       </c>
       <c r="E6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -618,7 +618,7 @@
         <v>10.33</v>
       </c>
       <c r="H6" t="n">
-        <v>10.48</v>
+        <v>10.51</v>
       </c>
       <c r="I6" t="n">
         <v>8.9</v>
@@ -653,7 +653,7 @@
         <v>10.07</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>7.71</v>
       </c>
       <c r="J7" t="n">
         <v>9.380000000000001</v>
@@ -676,7 +676,7 @@
         <v>11.5</v>
       </c>
       <c r="F8" t="n">
-        <v>9.52</v>
+        <v>9.49</v>
       </c>
       <c r="G8" t="n">
         <v>9.93</v>
@@ -711,7 +711,7 @@
         <v>11.1</v>
       </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>12.29</v>
       </c>
       <c r="H9" t="n">
         <v>11.2</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -513,7 +513,7 @@
         <v>10.25</v>
       </c>
       <c r="E3" t="n">
-        <v>10.65</v>
+        <v>10.7</v>
       </c>
       <c r="F3" t="n">
         <v>10.35</v>
@@ -545,10 +545,10 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.72</v>
+        <v>10.67</v>
       </c>
       <c r="F4" t="n">
-        <v>10.08</v>
+        <v>9.98</v>
       </c>
       <c r="G4" t="n">
         <v>10.12</v>
@@ -571,10 +571,10 @@
         <v>9.220000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>9.300000000000001</v>
+        <v>9.26</v>
       </c>
       <c r="D5" t="n">
-        <v>9.279999999999999</v>
+        <v>9.33</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -586,7 +586,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>8.5</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="I5" t="n">
         <v>7.62</v>
@@ -606,7 +606,7 @@
         <v>9.65</v>
       </c>
       <c r="D6" t="n">
-        <v>9.92</v>
+        <v>10.02</v>
       </c>
       <c r="E6" t="n">
         <v>9.81</v>
@@ -621,7 +621,7 @@
         <v>10.51</v>
       </c>
       <c r="I6" t="n">
-        <v>8.9</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="J6" t="n">
         <v>7.6</v>
@@ -650,13 +650,13 @@
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>10.07</v>
+        <v>10.1</v>
       </c>
       <c r="I7" t="n">
         <v>7.71</v>
       </c>
       <c r="J7" t="n">
-        <v>9.380000000000001</v>
+        <v>9.789999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -673,13 +673,13 @@
         <v>10.5</v>
       </c>
       <c r="E8" t="n">
-        <v>11.5</v>
+        <v>11.39</v>
       </c>
       <c r="F8" t="n">
         <v>9.49</v>
       </c>
       <c r="G8" t="n">
-        <v>9.93</v>
+        <v>9.9</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -708,7 +708,7 @@
         <v>12.38</v>
       </c>
       <c r="F9" t="n">
-        <v>11.1</v>
+        <v>11.29</v>
       </c>
       <c r="G9" t="n">
         <v>12.29</v>
@@ -743,7 +743,7 @@
         <v>12.4</v>
       </c>
       <c r="G10" t="n">
-        <v>10.62</v>
+        <v>10.21</v>
       </c>
       <c r="H10" t="n">
         <v>8.779999999999999</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -513,10 +513,10 @@
         <v>10.25</v>
       </c>
       <c r="E3" t="n">
-        <v>10.7</v>
+        <v>10.76</v>
       </c>
       <c r="F3" t="n">
-        <v>10.35</v>
+        <v>10.58</v>
       </c>
       <c r="G3" t="n">
         <v>11.54</v>
@@ -545,16 +545,16 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.67</v>
+        <v>10.66</v>
       </c>
       <c r="F4" t="n">
-        <v>9.98</v>
+        <v>9.9</v>
       </c>
       <c r="G4" t="n">
         <v>10.12</v>
       </c>
       <c r="H4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -571,16 +571,16 @@
         <v>9.220000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>9.26</v>
+        <v>9.19</v>
       </c>
       <c r="D5" t="n">
-        <v>9.33</v>
+        <v>9.34</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.19</v>
+        <v>10.21</v>
       </c>
       <c r="G5" t="n">
         <v>9.720000000000001</v>
@@ -603,19 +603,19 @@
         <v>9.800000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>9.65</v>
+        <v>9.42</v>
       </c>
       <c r="D6" t="n">
-        <v>10.02</v>
+        <v>10.1</v>
       </c>
       <c r="E6" t="n">
-        <v>9.81</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.33</v>
+        <v>10.32</v>
       </c>
       <c r="H6" t="n">
         <v>10.51</v>
@@ -644,16 +644,16 @@
         <v>10.28</v>
       </c>
       <c r="F7" t="n">
-        <v>9.67</v>
+        <v>9.68</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>10.1</v>
+        <v>10.15</v>
       </c>
       <c r="I7" t="n">
-        <v>7.71</v>
+        <v>7.94</v>
       </c>
       <c r="J7" t="n">
         <v>9.789999999999999</v>
@@ -670,7 +670,7 @@
         <v>8.57</v>
       </c>
       <c r="D8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
         <v>11.39</v>
@@ -679,7 +679,7 @@
         <v>9.49</v>
       </c>
       <c r="G8" t="n">
-        <v>9.9</v>
+        <v>9.85</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -711,7 +711,7 @@
         <v>11.29</v>
       </c>
       <c r="G9" t="n">
-        <v>12.29</v>
+        <v>12.06</v>
       </c>
       <c r="H9" t="n">
         <v>11.2</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -478,7 +478,7 @@
         <v>10.04</v>
       </c>
       <c r="D2" t="n">
-        <v>11.5</v>
+        <v>11.27</v>
       </c>
       <c r="E2" t="n">
         <v>10.78</v>
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.25</v>
+        <v>10.23</v>
       </c>
       <c r="E3" t="n">
         <v>10.76</v>
@@ -536,10 +536,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.5</v>
+        <v>8.73</v>
       </c>
       <c r="C4" t="n">
-        <v>9.75</v>
+        <v>9.77</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
@@ -580,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.21</v>
+        <v>10.2</v>
       </c>
       <c r="G5" t="n">
         <v>9.720000000000001</v>
@@ -609,16 +609,16 @@
         <v>10.1</v>
       </c>
       <c r="E6" t="n">
-        <v>9.789999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.32</v>
+        <v>10.35</v>
       </c>
       <c r="H6" t="n">
-        <v>10.51</v>
+        <v>10.53</v>
       </c>
       <c r="I6" t="n">
         <v>8.710000000000001</v>
@@ -644,7 +644,7 @@
         <v>10.28</v>
       </c>
       <c r="F7" t="n">
-        <v>9.68</v>
+        <v>9.65</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -676,7 +676,7 @@
         <v>11.39</v>
       </c>
       <c r="F8" t="n">
-        <v>9.49</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="G8" t="n">
         <v>9.85</v>
@@ -685,10 +685,10 @@
         <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>11.22</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
         <v>12.06</v>
       </c>
       <c r="H9" t="n">
-        <v>11.2</v>
+        <v>11.12</v>
       </c>
       <c r="I9" t="n">
         <v>10</v>
@@ -746,7 +746,7 @@
         <v>10.21</v>
       </c>
       <c r="H10" t="n">
-        <v>8.779999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="I10" t="n">
         <v>5.6</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -545,10 +545,10 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.66</v>
+        <v>10.6</v>
       </c>
       <c r="F4" t="n">
-        <v>9.9</v>
+        <v>9.92</v>
       </c>
       <c r="G4" t="n">
         <v>10.12</v>
@@ -574,13 +574,13 @@
         <v>9.19</v>
       </c>
       <c r="D5" t="n">
-        <v>9.34</v>
+        <v>9.4</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.2</v>
+        <v>10.18</v>
       </c>
       <c r="G5" t="n">
         <v>9.720000000000001</v>
@@ -606,16 +606,16 @@
         <v>9.42</v>
       </c>
       <c r="D6" t="n">
-        <v>10.1</v>
+        <v>10.08</v>
       </c>
       <c r="E6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.82</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.35</v>
+        <v>10.38</v>
       </c>
       <c r="H6" t="n">
         <v>10.53</v>
@@ -644,13 +644,13 @@
         <v>10.28</v>
       </c>
       <c r="F7" t="n">
-        <v>9.65</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>10.15</v>
+        <v>10.11</v>
       </c>
       <c r="I7" t="n">
         <v>7.94</v>
@@ -679,7 +679,7 @@
         <v>9.470000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>9.85</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -688,7 +688,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>11.4</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="9">
@@ -746,7 +746,7 @@
         <v>10.21</v>
       </c>
       <c r="H10" t="n">
-        <v>8.6</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="I10" t="n">
         <v>5.6</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -475,7 +475,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>10.04</v>
+        <v>10.14</v>
       </c>
       <c r="D2" t="n">
         <v>11.27</v>
@@ -504,13 +504,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.960000000000001</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.23</v>
+        <v>10.2</v>
       </c>
       <c r="E3" t="n">
         <v>10.76</v>
@@ -539,13 +539,13 @@
         <v>8.73</v>
       </c>
       <c r="C4" t="n">
-        <v>9.77</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.6</v>
+        <v>10.61</v>
       </c>
       <c r="F4" t="n">
         <v>9.92</v>
@@ -574,7 +574,7 @@
         <v>9.19</v>
       </c>
       <c r="D5" t="n">
-        <v>9.4</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -583,7 +583,7 @@
         <v>10.18</v>
       </c>
       <c r="G5" t="n">
-        <v>9.720000000000001</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="H5" t="n">
         <v>8.609999999999999</v>
@@ -615,10 +615,10 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.38</v>
+        <v>10.36</v>
       </c>
       <c r="H6" t="n">
-        <v>10.53</v>
+        <v>10.5</v>
       </c>
       <c r="I6" t="n">
         <v>8.710000000000001</v>
@@ -641,10 +641,10 @@
         <v>10.06</v>
       </c>
       <c r="E7" t="n">
-        <v>10.28</v>
+        <v>10.22</v>
       </c>
       <c r="F7" t="n">
-        <v>9.619999999999999</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -653,7 +653,7 @@
         <v>10.11</v>
       </c>
       <c r="I7" t="n">
-        <v>7.94</v>
+        <v>7.74</v>
       </c>
       <c r="J7" t="n">
         <v>9.789999999999999</v>
@@ -676,7 +676,7 @@
         <v>11.39</v>
       </c>
       <c r="F8" t="n">
-        <v>9.470000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="G8" t="n">
         <v>9.890000000000001</v>
@@ -711,7 +711,7 @@
         <v>11.29</v>
       </c>
       <c r="G9" t="n">
-        <v>12.06</v>
+        <v>12.26</v>
       </c>
       <c r="H9" t="n">
         <v>11.12</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -475,7 +475,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>10.14</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="D2" t="n">
         <v>11.27</v>
@@ -504,16 +504,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.859999999999999</v>
+        <v>10.13</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.2</v>
+        <v>10.16</v>
       </c>
       <c r="E3" t="n">
-        <v>10.76</v>
+        <v>10.73</v>
       </c>
       <c r="F3" t="n">
         <v>10.58</v>
@@ -539,19 +539,19 @@
         <v>8.73</v>
       </c>
       <c r="C4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.84</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.61</v>
+        <v>10.64</v>
       </c>
       <c r="F4" t="n">
-        <v>9.92</v>
+        <v>9.81</v>
       </c>
       <c r="G4" t="n">
-        <v>10.12</v>
+        <v>9.94</v>
       </c>
       <c r="H4" t="n">
         <v>9</v>
@@ -571,16 +571,16 @@
         <v>9.220000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>9.19</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>9.390000000000001</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.18</v>
+        <v>10.16</v>
       </c>
       <c r="G5" t="n">
         <v>9.779999999999999</v>
@@ -606,16 +606,16 @@
         <v>9.42</v>
       </c>
       <c r="D6" t="n">
-        <v>10.08</v>
+        <v>10.19</v>
       </c>
       <c r="E6" t="n">
-        <v>9.82</v>
+        <v>9.84</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.36</v>
+        <v>10.38</v>
       </c>
       <c r="H6" t="n">
         <v>10.5</v>
@@ -638,13 +638,13 @@
         <v>8.460000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>10.06</v>
+        <v>10.22</v>
       </c>
       <c r="E7" t="n">
         <v>10.22</v>
       </c>
       <c r="F7" t="n">
-        <v>9.640000000000001</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -653,7 +653,7 @@
         <v>10.11</v>
       </c>
       <c r="I7" t="n">
-        <v>7.74</v>
+        <v>7.6</v>
       </c>
       <c r="J7" t="n">
         <v>9.789999999999999</v>
@@ -688,7 +688,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>11.55</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="9">
@@ -711,7 +711,7 @@
         <v>11.29</v>
       </c>
       <c r="G9" t="n">
-        <v>12.26</v>
+        <v>12.4</v>
       </c>
       <c r="H9" t="n">
         <v>11.12</v>
@@ -746,7 +746,7 @@
         <v>10.21</v>
       </c>
       <c r="H10" t="n">
-        <v>8.449999999999999</v>
+        <v>8.92</v>
       </c>
       <c r="I10" t="n">
         <v>5.6</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -513,10 +513,10 @@
         <v>10.16</v>
       </c>
       <c r="E3" t="n">
-        <v>10.73</v>
+        <v>10.71</v>
       </c>
       <c r="F3" t="n">
-        <v>10.58</v>
+        <v>10.49</v>
       </c>
       <c r="G3" t="n">
         <v>11.54</v>
@@ -548,7 +548,7 @@
         <v>10.64</v>
       </c>
       <c r="F4" t="n">
-        <v>9.81</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="G4" t="n">
         <v>9.94</v>
@@ -571,7 +571,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>9.220000000000001</v>
+        <v>9.24</v>
       </c>
       <c r="D5" t="n">
         <v>9.359999999999999</v>
@@ -586,7 +586,7 @@
         <v>9.779999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>8.609999999999999</v>
+        <v>8.41</v>
       </c>
       <c r="I5" t="n">
         <v>7.62</v>
@@ -603,10 +603,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>9.42</v>
+        <v>9.51</v>
       </c>
       <c r="D6" t="n">
-        <v>10.19</v>
+        <v>10.28</v>
       </c>
       <c r="E6" t="n">
         <v>9.84</v>
@@ -615,7 +615,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.38</v>
+        <v>10.41</v>
       </c>
       <c r="H6" t="n">
         <v>10.5</v>
@@ -644,7 +644,7 @@
         <v>10.22</v>
       </c>
       <c r="F7" t="n">
-        <v>9.619999999999999</v>
+        <v>9.59</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -673,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>11.39</v>
+        <v>11.59</v>
       </c>
       <c r="F8" t="n">
         <v>9.5</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -475,13 +475,13 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>9.869999999999999</v>
+        <v>9.94</v>
       </c>
       <c r="D2" t="n">
         <v>11.27</v>
       </c>
       <c r="E2" t="n">
-        <v>10.78</v>
+        <v>11.07</v>
       </c>
       <c r="F2" t="n">
         <v>10.2</v>
@@ -504,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.13</v>
+        <v>10.06</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
@@ -513,7 +513,7 @@
         <v>10.16</v>
       </c>
       <c r="E3" t="n">
-        <v>10.71</v>
+        <v>10.79</v>
       </c>
       <c r="F3" t="n">
         <v>10.49</v>
@@ -545,16 +545,16 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.64</v>
+        <v>10.6</v>
       </c>
       <c r="F4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.68</v>
       </c>
       <c r="G4" t="n">
         <v>9.94</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8.67</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -568,22 +568,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.220000000000001</v>
+        <v>8.93</v>
       </c>
       <c r="C5" t="n">
-        <v>9.24</v>
+        <v>9.16</v>
       </c>
       <c r="D5" t="n">
-        <v>9.359999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.16</v>
+        <v>10.17</v>
       </c>
       <c r="G5" t="n">
-        <v>9.779999999999999</v>
+        <v>9.75</v>
       </c>
       <c r="H5" t="n">
         <v>8.41</v>
@@ -606,19 +606,19 @@
         <v>9.51</v>
       </c>
       <c r="D6" t="n">
-        <v>10.28</v>
+        <v>10.32</v>
       </c>
       <c r="E6" t="n">
-        <v>9.84</v>
+        <v>9.83</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.41</v>
+        <v>10.49</v>
       </c>
       <c r="H6" t="n">
-        <v>10.5</v>
+        <v>10.57</v>
       </c>
       <c r="I6" t="n">
         <v>8.710000000000001</v>
@@ -641,16 +641,16 @@
         <v>10.22</v>
       </c>
       <c r="E7" t="n">
-        <v>10.22</v>
+        <v>10.25</v>
       </c>
       <c r="F7" t="n">
-        <v>9.59</v>
+        <v>9.51</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>10.11</v>
+        <v>10.06</v>
       </c>
       <c r="I7" t="n">
         <v>7.6</v>
@@ -670,16 +670,16 @@
         <v>8.57</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>11.33</v>
       </c>
       <c r="E8" t="n">
         <v>11.59</v>
       </c>
       <c r="F8" t="n">
-        <v>9.5</v>
+        <v>9.43</v>
       </c>
       <c r="G8" t="n">
-        <v>9.890000000000001</v>
+        <v>9.94</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -688,7 +688,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>11.08</v>
+        <v>11.54</v>
       </c>
     </row>
     <row r="9">
@@ -746,7 +746,7 @@
         <v>10.21</v>
       </c>
       <c r="H10" t="n">
-        <v>8.92</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="I10" t="n">
         <v>5.6</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -478,7 +478,7 @@
         <v>9.94</v>
       </c>
       <c r="D2" t="n">
-        <v>11.27</v>
+        <v>10.96</v>
       </c>
       <c r="E2" t="n">
         <v>11.07</v>
@@ -510,13 +510,13 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.16</v>
+        <v>10.09</v>
       </c>
       <c r="E3" t="n">
         <v>10.79</v>
       </c>
       <c r="F3" t="n">
-        <v>10.49</v>
+        <v>10.43</v>
       </c>
       <c r="G3" t="n">
         <v>11.54</v>
@@ -536,19 +536,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.73</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.84</v>
+        <v>9.91</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.6</v>
+        <v>10.63</v>
       </c>
       <c r="F4" t="n">
-        <v>9.68</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="G4" t="n">
         <v>9.94</v>
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="5">
@@ -574,13 +574,13 @@
         <v>9.16</v>
       </c>
       <c r="D5" t="n">
-        <v>9.4</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.17</v>
+        <v>10.18</v>
       </c>
       <c r="G5" t="n">
         <v>9.75</v>
@@ -603,19 +603,19 @@
         <v>9.800000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>9.51</v>
+        <v>9.57</v>
       </c>
       <c r="D6" t="n">
-        <v>10.32</v>
+        <v>10.28</v>
       </c>
       <c r="E6" t="n">
-        <v>9.83</v>
+        <v>9.82</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.49</v>
+        <v>10.51</v>
       </c>
       <c r="H6" t="n">
         <v>10.57</v>
@@ -644,13 +644,13 @@
         <v>10.25</v>
       </c>
       <c r="F7" t="n">
-        <v>9.51</v>
+        <v>9.49</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>10.06</v>
+        <v>10.02</v>
       </c>
       <c r="I7" t="n">
         <v>7.6</v>
@@ -679,7 +679,7 @@
         <v>9.43</v>
       </c>
       <c r="G8" t="n">
-        <v>9.94</v>
+        <v>9.98</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -734,7 +734,7 @@
         <v>10.5</v>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="E10" t="n">
         <v>12.38</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -475,7 +475,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>9.94</v>
+        <v>10.19</v>
       </c>
       <c r="D2" t="n">
         <v>10.96</v>
@@ -504,13 +504,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.06</v>
+        <v>9.81</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.09</v>
+        <v>10.12</v>
       </c>
       <c r="E3" t="n">
         <v>10.79</v>
@@ -539,13 +539,13 @@
         <v>9.039999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.91</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.63</v>
+        <v>10.64</v>
       </c>
       <c r="F4" t="n">
         <v>9.720000000000001</v>
@@ -574,16 +574,16 @@
         <v>9.16</v>
       </c>
       <c r="D5" t="n">
-        <v>9.369999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.18</v>
+        <v>10.19</v>
       </c>
       <c r="G5" t="n">
-        <v>9.75</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="H5" t="n">
         <v>8.41</v>
@@ -609,16 +609,16 @@
         <v>10.28</v>
       </c>
       <c r="E6" t="n">
-        <v>9.82</v>
+        <v>9.81</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.51</v>
+        <v>10.48</v>
       </c>
       <c r="H6" t="n">
-        <v>10.57</v>
+        <v>10.53</v>
       </c>
       <c r="I6" t="n">
         <v>8.710000000000001</v>
@@ -641,22 +641,22 @@
         <v>10.22</v>
       </c>
       <c r="E7" t="n">
-        <v>10.25</v>
+        <v>10.29</v>
       </c>
       <c r="F7" t="n">
-        <v>9.49</v>
+        <v>9.52</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>10.02</v>
+        <v>9.91</v>
       </c>
       <c r="I7" t="n">
         <v>7.6</v>
       </c>
       <c r="J7" t="n">
-        <v>9.789999999999999</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="8">
@@ -676,10 +676,10 @@
         <v>11.59</v>
       </c>
       <c r="F8" t="n">
-        <v>9.43</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>9.98</v>
+        <v>10.09</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -743,7 +743,7 @@
         <v>12.4</v>
       </c>
       <c r="G10" t="n">
-        <v>10.21</v>
+        <v>10.33</v>
       </c>
       <c r="H10" t="n">
         <v>8.460000000000001</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -545,7 +545,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.64</v>
+        <v>10.61</v>
       </c>
       <c r="F4" t="n">
         <v>9.720000000000001</v>
@@ -554,7 +554,7 @@
         <v>9.94</v>
       </c>
       <c r="H4" t="n">
-        <v>8.67</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -574,16 +574,16 @@
         <v>9.16</v>
       </c>
       <c r="D5" t="n">
-        <v>9.359999999999999</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.19</v>
+        <v>10.15</v>
       </c>
       <c r="G5" t="n">
-        <v>9.710000000000001</v>
+        <v>9.68</v>
       </c>
       <c r="H5" t="n">
         <v>8.41</v>
@@ -592,7 +592,7 @@
         <v>7.62</v>
       </c>
       <c r="J5" t="n">
-        <v>7.62</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="6">
@@ -609,16 +609,16 @@
         <v>10.28</v>
       </c>
       <c r="E6" t="n">
-        <v>9.81</v>
+        <v>9.85</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.48</v>
+        <v>10.47</v>
       </c>
       <c r="H6" t="n">
-        <v>10.53</v>
+        <v>10.43</v>
       </c>
       <c r="I6" t="n">
         <v>8.710000000000001</v>
@@ -641,10 +641,10 @@
         <v>10.22</v>
       </c>
       <c r="E7" t="n">
-        <v>10.29</v>
+        <v>10.32</v>
       </c>
       <c r="F7" t="n">
-        <v>9.52</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -670,13 +670,13 @@
         <v>8.57</v>
       </c>
       <c r="D8" t="n">
-        <v>11.33</v>
+        <v>10.86</v>
       </c>
       <c r="E8" t="n">
         <v>11.59</v>
       </c>
       <c r="F8" t="n">
-        <v>9.470000000000001</v>
+        <v>9.57</v>
       </c>
       <c r="G8" t="n">
         <v>10.09</v>
@@ -737,7 +737,7 @@
         <v>8.5</v>
       </c>
       <c r="E10" t="n">
-        <v>12.38</v>
+        <v>12.44</v>
       </c>
       <c r="F10" t="n">
         <v>12.4</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -481,7 +481,7 @@
         <v>10.96</v>
       </c>
       <c r="E2" t="n">
-        <v>11.07</v>
+        <v>10.9</v>
       </c>
       <c r="F2" t="n">
         <v>10.2</v>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.12</v>
+        <v>10.13</v>
       </c>
       <c r="E3" t="n">
-        <v>10.79</v>
+        <v>10.82</v>
       </c>
       <c r="F3" t="n">
         <v>10.43</v>
@@ -539,16 +539,16 @@
         <v>9.039999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.880000000000001</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.61</v>
+        <v>10.59</v>
       </c>
       <c r="F4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.74</v>
       </c>
       <c r="G4" t="n">
         <v>9.94</v>
@@ -568,19 +568,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.93</v>
+        <v>9.1</v>
       </c>
       <c r="C5" t="n">
-        <v>9.16</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>9.390000000000001</v>
+        <v>9.41</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.15</v>
+        <v>10.18</v>
       </c>
       <c r="G5" t="n">
         <v>9.68</v>
@@ -606,19 +606,19 @@
         <v>9.57</v>
       </c>
       <c r="D6" t="n">
-        <v>10.28</v>
+        <v>10.26</v>
       </c>
       <c r="E6" t="n">
-        <v>9.85</v>
+        <v>9.82</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.47</v>
+        <v>10.44</v>
       </c>
       <c r="H6" t="n">
-        <v>10.43</v>
+        <v>10.34</v>
       </c>
       <c r="I6" t="n">
         <v>8.710000000000001</v>
@@ -644,13 +644,13 @@
         <v>10.32</v>
       </c>
       <c r="F7" t="n">
-        <v>9.529999999999999</v>
+        <v>9.56</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.91</v>
+        <v>9.85</v>
       </c>
       <c r="I7" t="n">
         <v>7.6</v>
@@ -676,10 +676,10 @@
         <v>11.59</v>
       </c>
       <c r="F8" t="n">
-        <v>9.57</v>
+        <v>9.66</v>
       </c>
       <c r="G8" t="n">
-        <v>10.09</v>
+        <v>10.15</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -688,7 +688,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>11.54</v>
+        <v>11.29</v>
       </c>
     </row>
     <row r="9">
@@ -746,7 +746,7 @@
         <v>10.33</v>
       </c>
       <c r="H10" t="n">
-        <v>8.460000000000001</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="I10" t="n">
         <v>5.6</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -513,10 +513,10 @@
         <v>10.13</v>
       </c>
       <c r="E3" t="n">
-        <v>10.82</v>
+        <v>10.78</v>
       </c>
       <c r="F3" t="n">
-        <v>10.43</v>
+        <v>10.34</v>
       </c>
       <c r="G3" t="n">
         <v>11.54</v>
@@ -545,7 +545,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.59</v>
+        <v>10.6</v>
       </c>
       <c r="F4" t="n">
         <v>9.74</v>
@@ -571,19 +571,19 @@
         <v>9.1</v>
       </c>
       <c r="C5" t="n">
-        <v>9.140000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="D5" t="n">
-        <v>9.41</v>
+        <v>9.4</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.18</v>
+        <v>10.17</v>
       </c>
       <c r="G5" t="n">
-        <v>9.68</v>
+        <v>9.65</v>
       </c>
       <c r="H5" t="n">
         <v>8.41</v>
@@ -603,22 +603,22 @@
         <v>9.800000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>9.57</v>
+        <v>9.66</v>
       </c>
       <c r="D6" t="n">
         <v>10.26</v>
       </c>
       <c r="E6" t="n">
-        <v>9.82</v>
+        <v>9.83</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.44</v>
+        <v>10.42</v>
       </c>
       <c r="H6" t="n">
-        <v>10.34</v>
+        <v>10.32</v>
       </c>
       <c r="I6" t="n">
         <v>8.710000000000001</v>
@@ -641,10 +641,10 @@
         <v>10.22</v>
       </c>
       <c r="E7" t="n">
-        <v>10.32</v>
+        <v>10.35</v>
       </c>
       <c r="F7" t="n">
-        <v>9.56</v>
+        <v>9.58</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -656,7 +656,7 @@
         <v>7.6</v>
       </c>
       <c r="J7" t="n">
-        <v>9.67</v>
+        <v>9.880000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -676,7 +676,7 @@
         <v>11.59</v>
       </c>
       <c r="F8" t="n">
-        <v>9.66</v>
+        <v>9.68</v>
       </c>
       <c r="G8" t="n">
         <v>10.15</v>
@@ -743,7 +743,7 @@
         <v>12.4</v>
       </c>
       <c r="G10" t="n">
-        <v>10.33</v>
+        <v>10.12</v>
       </c>
       <c r="H10" t="n">
         <v>8.710000000000001</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -478,7 +478,7 @@
         <v>10.19</v>
       </c>
       <c r="D2" t="n">
-        <v>10.96</v>
+        <v>10.82</v>
       </c>
       <c r="E2" t="n">
         <v>10.9</v>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.13</v>
+        <v>10.19</v>
       </c>
       <c r="E3" t="n">
-        <v>10.78</v>
+        <v>10.8</v>
       </c>
       <c r="F3" t="n">
         <v>10.34</v>
@@ -536,19 +536,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.039999999999999</v>
+        <v>9.18</v>
       </c>
       <c r="C4" t="n">
-        <v>9.869999999999999</v>
+        <v>9.81</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.6</v>
+        <v>10.63</v>
       </c>
       <c r="F4" t="n">
-        <v>9.74</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="G4" t="n">
         <v>9.94</v>
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.5</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="5">
@@ -571,22 +571,22 @@
         <v>9.1</v>
       </c>
       <c r="C5" t="n">
-        <v>9.18</v>
+        <v>9.15</v>
       </c>
       <c r="D5" t="n">
-        <v>9.4</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.17</v>
+        <v>10.14</v>
       </c>
       <c r="G5" t="n">
         <v>9.65</v>
       </c>
       <c r="H5" t="n">
-        <v>8.41</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I5" t="n">
         <v>7.62</v>
@@ -606,10 +606,10 @@
         <v>9.66</v>
       </c>
       <c r="D6" t="n">
-        <v>10.26</v>
+        <v>10.28</v>
       </c>
       <c r="E6" t="n">
-        <v>9.83</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -618,7 +618,7 @@
         <v>10.42</v>
       </c>
       <c r="H6" t="n">
-        <v>10.32</v>
+        <v>10.47</v>
       </c>
       <c r="I6" t="n">
         <v>8.710000000000001</v>
@@ -650,13 +650,13 @@
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.85</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="I7" t="n">
         <v>7.6</v>
       </c>
       <c r="J7" t="n">
-        <v>9.880000000000001</v>
+        <v>9.529999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -673,13 +673,13 @@
         <v>10.86</v>
       </c>
       <c r="E8" t="n">
-        <v>11.59</v>
+        <v>11.63</v>
       </c>
       <c r="F8" t="n">
-        <v>9.68</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>10.15</v>
+        <v>10.12</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -734,7 +734,7 @@
         <v>10.5</v>
       </c>
       <c r="D10" t="n">
-        <v>8.5</v>
+        <v>7.33</v>
       </c>
       <c r="E10" t="n">
         <v>12.44</v>
@@ -743,7 +743,7 @@
         <v>12.4</v>
       </c>
       <c r="G10" t="n">
-        <v>10.12</v>
+        <v>10.47</v>
       </c>
       <c r="H10" t="n">
         <v>8.710000000000001</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -513,7 +513,7 @@
         <v>10.19</v>
       </c>
       <c r="E3" t="n">
-        <v>10.8</v>
+        <v>10.82</v>
       </c>
       <c r="F3" t="n">
         <v>10.34</v>
@@ -545,13 +545,13 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.63</v>
+        <v>10.61</v>
       </c>
       <c r="F4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>9.94</v>
+        <v>10.05</v>
       </c>
       <c r="H4" t="n">
         <v>9.140000000000001</v>
@@ -571,22 +571,22 @@
         <v>9.1</v>
       </c>
       <c r="C5" t="n">
-        <v>9.15</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>9.369999999999999</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.14</v>
+        <v>10.1</v>
       </c>
       <c r="G5" t="n">
-        <v>9.65</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>8.369999999999999</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="I5" t="n">
         <v>7.62</v>
@@ -606,19 +606,19 @@
         <v>9.66</v>
       </c>
       <c r="D6" t="n">
-        <v>10.28</v>
+        <v>10.3</v>
       </c>
       <c r="E6" t="n">
-        <v>9.859999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.42</v>
+        <v>10.33</v>
       </c>
       <c r="H6" t="n">
-        <v>10.47</v>
+        <v>10.55</v>
       </c>
       <c r="I6" t="n">
         <v>8.710000000000001</v>
@@ -638,25 +638,25 @@
         <v>8.460000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>10.22</v>
+        <v>10.11</v>
       </c>
       <c r="E7" t="n">
-        <v>10.35</v>
+        <v>10.28</v>
       </c>
       <c r="F7" t="n">
-        <v>9.58</v>
+        <v>9.67</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.880000000000001</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="I7" t="n">
         <v>7.6</v>
       </c>
       <c r="J7" t="n">
-        <v>9.529999999999999</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -673,13 +673,13 @@
         <v>10.86</v>
       </c>
       <c r="E8" t="n">
-        <v>11.63</v>
+        <v>11.53</v>
       </c>
       <c r="F8" t="n">
-        <v>9.529999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>10.12</v>
+        <v>10.03</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -743,7 +743,7 @@
         <v>12.4</v>
       </c>
       <c r="G10" t="n">
-        <v>10.47</v>
+        <v>10.22</v>
       </c>
       <c r="H10" t="n">
         <v>8.710000000000001</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -484,7 +484,7 @@
         <v>10.9</v>
       </c>
       <c r="F2" t="n">
-        <v>10.2</v>
+        <v>11.17</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -513,7 +513,7 @@
         <v>10.19</v>
       </c>
       <c r="E3" t="n">
-        <v>10.82</v>
+        <v>10.8</v>
       </c>
       <c r="F3" t="n">
         <v>10.34</v>
@@ -545,13 +545,13 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.61</v>
+        <v>10.59</v>
       </c>
       <c r="F4" t="n">
-        <v>9.699999999999999</v>
+        <v>9.68</v>
       </c>
       <c r="G4" t="n">
-        <v>10.05</v>
+        <v>10.15</v>
       </c>
       <c r="H4" t="n">
         <v>9.140000000000001</v>
@@ -571,16 +571,16 @@
         <v>9.1</v>
       </c>
       <c r="C5" t="n">
-        <v>9.130000000000001</v>
+        <v>9.15</v>
       </c>
       <c r="D5" t="n">
-        <v>9.390000000000001</v>
+        <v>9.41</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.1</v>
+        <v>10.16</v>
       </c>
       <c r="G5" t="n">
         <v>9.720000000000001</v>
@@ -600,16 +600,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.800000000000001</v>
+        <v>8.83</v>
       </c>
       <c r="C6" t="n">
         <v>9.66</v>
       </c>
       <c r="D6" t="n">
-        <v>10.3</v>
+        <v>10.32</v>
       </c>
       <c r="E6" t="n">
-        <v>9.9</v>
+        <v>9.84</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -618,7 +618,7 @@
         <v>10.33</v>
       </c>
       <c r="H6" t="n">
-        <v>10.55</v>
+        <v>10.61</v>
       </c>
       <c r="I6" t="n">
         <v>8.710000000000001</v>
@@ -638,7 +638,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>10.11</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
         <v>10.28</v>
@@ -650,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>9.970000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="I7" t="n">
         <v>7.6</v>
@@ -676,10 +676,10 @@
         <v>11.53</v>
       </c>
       <c r="F8" t="n">
-        <v>9.449999999999999</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>10.03</v>
+        <v>10.1</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -688,7 +688,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>11.29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -746,7 +746,7 @@
         <v>10.22</v>
       </c>
       <c r="H10" t="n">
-        <v>8.710000000000001</v>
+        <v>9</v>
       </c>
       <c r="I10" t="n">
         <v>5.6</v>

--- a/data/SLMatchupAveragesNine.xlsx
+++ b/data/SLMatchupAveragesNine.xlsx
@@ -481,7 +481,7 @@
         <v>10.82</v>
       </c>
       <c r="E2" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="F2" t="n">
         <v>11.17</v>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>10.19</v>
+        <v>10.17</v>
       </c>
       <c r="E3" t="n">
-        <v>10.8</v>
+        <v>10.85</v>
       </c>
       <c r="F3" t="n">
         <v>10.34</v>
@@ -539,7 +539,7 @@
         <v>9.18</v>
       </c>
       <c r="C4" t="n">
-        <v>9.81</v>
+        <v>9.83</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
@@ -548,7 +548,7 @@
         <v>10.59</v>
       </c>
       <c r="F4" t="n">
-        <v>9.68</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="G4" t="n">
         <v>10.15</v>
@@ -568,10 +568,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>9.15</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="D5" t="n">
         <v>9.41</v>
@@ -580,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>10.16</v>
+        <v>10.17</v>
       </c>
       <c r="G5" t="n">
         <v>9.720000000000001</v>
@@ -606,19 +606,19 @@
         <v>9.66</v>
       </c>
       <c r="D6" t="n">
-        <v>10.32</v>
+        <v>10.37</v>
       </c>
       <c r="E6" t="n">
-        <v>9.84</v>
+        <v>9.83</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>10.33</v>
+        <v>10.26</v>
       </c>
       <c r="H6" t="n">
-        <v>10.61</v>
+        <v>10.56</v>
       </c>
       <c r="I6" t="n">
         <v>8.710000000000001</v>
@@ -644,7 +644,7 @@
         <v>10.28</v>
       </c>
       <c r="F7" t="n">
-        <v>9.67</v>
+        <v>9.74</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -676,7 +676,7 @@
         <v>11.53</v>
       </c>
       <c r="F8" t="n">
-        <v>9.390000000000001</v>
+        <v>9.44</v>
       </c>
       <c r="G8" t="n">
         <v>10.1</v>
@@ -688,7 +688,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>11</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="9">
@@ -746,7 +746,7 @@
         <v>10.22</v>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>9.19</v>
       </c>
       <c r="I10" t="n">
         <v>5.6</v>
